--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/32 от 30-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0003249999999999989</v>
+        <v>0.0002650000000000013</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0003249999999999989</v>
+        <v>0.0002650000000000013</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>-0.000104999999999994</v>
+        <v>0.01980692997125252</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004075469427834926</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-0.0006500000000000117</v>
+        <v>0.02291395481383174</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0002909686724974049</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.007511310788507392</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0005007502969117651</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.007511310788507392</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0005007502969117651</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0154854179775247</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0003697444184956166</v>
+        <v>0.001111491662136798</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001038402237991899</v>
+        <v>0.001039173830347875</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9361,26 +9359,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03687744159561004</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001289806111031221</v>
+        <v>0.001761206273075079</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0548635065892899</v>
+        <v>0.06018808853266805</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001466659120773464</v>
+        <v>0.001760479460695291</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01778733088320467</v>
+        <v>0.01791582658388813</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01778733088320467</v>
+        <v>0.01791582658388813</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03848774795106191</v>
+        <v>0.04100803197554517</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002203778689296467</v>
+        <v>0.00264180940961262</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05946792427234565</v>
+        <v>0.05793484891647671</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002199988681160196</v>
+        <v>0.002640719191042937</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01912235218102599</v>
+        <v>0.01979231908302477</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01912235218102599</v>
+        <v>0.01979231908302477</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03957353105579678</v>
+        <v>0.04221034665905343</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002938371585728623</v>
+        <v>0.003522412546150159</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0599919095545125</v>
+        <v>0.06125258064453987</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002933318241546929</v>
+        <v>0.003520958921390583</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0005007502969117651</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.007511310788507392</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01951910138071665</v>
+        <v>0.02004359198421667</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01951910138071665</v>
+        <v>0.02004359198421667</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04205500736260709</v>
+        <v>0.04336696392641209</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003672964482160779</v>
+        <v>0.004403015682687699</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06411759614786833</v>
+        <v>0.06729823504663429</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003666647801933661</v>
+        <v>0.004401198651738228</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02095135021455041</v>
+        <v>0.02143306867663326</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02095135021455041</v>
+        <v>0.02143306867663326</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04352202315706571</v>
+        <v>0.0438014152291675</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004407557378592934</v>
+        <v>0.005283618819225239</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06857139710844684</v>
+        <v>0.06469563616185442</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004399977362320393</v>
+        <v>0.005281438382085874</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02167753152871713</v>
+        <v>0.02220827840144066</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02167753152871713</v>
+        <v>0.02220827840144066</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04499332326804137</v>
+        <v>0.04778396471780186</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005142150275025091</v>
+        <v>0.006164221955762779</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07132497045610392</v>
+        <v>0.06866365193970231</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005133306922707125</v>
+        <v>0.006161678112433519</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02177965601511717</v>
+        <v>0.0222231508913836</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02177965601511717</v>
+        <v>0.0222231508913836</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04565069996774079</v>
+        <v>0.04586346335405114</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005876743171457246</v>
+        <v>0.007044825092300318</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07013880705117415</v>
+        <v>0.06986838036975551</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005866636483093857</v>
+        <v>0.007041917842781165</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02287610030896496</v>
+        <v>0.02295702357930901</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02287610030896496</v>
+        <v>0.02295702357930901</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0490716798332464</v>
+        <v>0.04628370382138955</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006611336067889401</v>
+        <v>0.007925428228837858</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07464700245830175</v>
+        <v>0.07165876174950936</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006599966043480589</v>
+        <v>0.007922157573128811</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02374102581490523</v>
+        <v>0.02388697579602492</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02374102581490523</v>
+        <v>0.02388697579602492</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0478862490073364</v>
+        <v>0.04777856385853035</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007345928964321557</v>
+        <v>0.008806031365375397</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07434510083847184</v>
+        <v>0.07612482402408449</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007333295603867322</v>
+        <v>0.008802397303476456</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02349208255459619</v>
+        <v>0.02422311900684979</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02349208255459619</v>
+        <v>0.02422311900684979</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04956300675562533</v>
+        <v>0.04855925781673689</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008080521860753713</v>
+        <v>0.009686634501912938</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07541724273512951</v>
+        <v>0.08011608258951258</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008066625164254054</v>
+        <v>0.009682637033824101</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02510027600713251</v>
+        <v>0.02467795381172899</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02510027600713251</v>
+        <v>0.02467795381172899</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05042085366274621</v>
+        <v>0.05042262824405025</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008815114757185868</v>
+        <v>0.01056723763845048</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08057451648094172</v>
+        <v>0.07764998931237238</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008799954724640785</v>
+        <v>0.01056287676417175</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02497498282920167</v>
+        <v>0.02534348624420801</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02497498282920167</v>
+        <v>0.02534348624420801</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05247703491156985</v>
+        <v>0.05094629333130496</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009549707653618025</v>
+        <v>0.01144784077498802</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08067785299541941</v>
+        <v>0.07565916665848127</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009533284285027518</v>
+        <v>0.01144311649451939</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02487094232702115</v>
+        <v>0.02560215048818033</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02487094232702115</v>
+        <v>0.02560215048818033</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0536829754900183</v>
+        <v>0.05398145333924462</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01028430055005018</v>
+        <v>0.01232844391152556</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07893531922437669</v>
+        <v>0.07904553559751287</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01026661384541425</v>
+        <v>0.01232335622486704</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02556559731018079</v>
+        <v>0.0256556292816514</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02556559731018079</v>
+        <v>0.0256556292816514</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05384435618053826</v>
+        <v>0.05244398481925608</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01101889344648234</v>
+        <v>0.0132090470480631</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08145733415138467</v>
+        <v>0.07766294884360747</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01099994340580098</v>
+        <v>0.01320359595521468</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02613425187357916</v>
+        <v>0.02524821239780753</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02613425187357916</v>
+        <v>0.02524821239780753</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05338400630279436</v>
+        <v>0.05549257945745892</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01175348634291449</v>
+        <v>0.01408965018460064</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08116105741827334</v>
+        <v>0.08180861704233239</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01173327296618771</v>
+        <v>0.01408383568556233</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02657024543080522</v>
+        <v>0.02657409832362388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02657024543080522</v>
+        <v>0.02657409832362388</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0565937188200431</v>
+        <v>0.05520414252085071</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01248807923934665</v>
+        <v>0.01497025332113817</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08474781416600374</v>
+        <v>0.08025830926200839</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01246660252657445</v>
+        <v>0.01496407541590998</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02673004523194841</v>
+        <v>0.02662756212727051</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02673004523194841</v>
+        <v>0.02662756212727051</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05553721057644745</v>
+        <v>0.05231642579549795</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0132226721357788</v>
+        <v>0.01585085645767572</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08728452619565635</v>
+        <v>0.08092534043672761</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01319993208696118</v>
+        <v>0.01584431514625762</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02766398813831229</v>
+        <v>0.02636683883174068</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02766398813831229</v>
+        <v>0.02636683883174068</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05803464599408059</v>
+        <v>0.0528212863549023</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01395726503221096</v>
+        <v>0.01673145959421326</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08538053610593271</v>
+        <v>0.0859390083627633</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01393326164734791</v>
+        <v>0.01672455487660527</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02717707039938735</v>
+        <v>0.02678438945920485</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02717707039938735</v>
+        <v>0.02678438945920485</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05699424554809013</v>
+        <v>0.05373867430583742</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01469185792864311</v>
+        <v>0.01761206273075079</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08633911584306547</v>
+        <v>0.08076856989168824</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01466659120773464</v>
+        <v>0.01760479460695291</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02727990652535919</v>
+        <v>0.02741847101776235</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02727990652535919</v>
+        <v>0.02741847101776235</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05834017896820209</v>
+        <v>0.05488294155764153</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01542645082507527</v>
+        <v>0.01849266586728834</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0873389553658116</v>
+        <v>0.08769300960552978</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01539992076812137</v>
+        <v>0.01848503433730056</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02771374008294335</v>
+        <v>0.02755935423241243</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02771374008294335</v>
+        <v>0.02755935423241243</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05642760870407215</v>
+        <v>0.05617640014019742</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01616104372150743</v>
+        <v>0.01937326900382588</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08560576185097007</v>
+        <v>0.08280591379010205</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01613325032850811</v>
+        <v>0.0193652740676482</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02740891294166196</v>
+        <v>0.02675235221123842</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02740891294166196</v>
+        <v>0.02675235221123842</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05640180520691179</v>
+        <v>0.05439325738148035</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01689563661793958</v>
+        <v>0.02025387214036341</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08653012486683143</v>
+        <v>0.08253168340339856</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01686657988889484</v>
+        <v>0.02024551379799585</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02760294807020934</v>
+        <v>0.02638190994994372</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02760294807020934</v>
+        <v>0.02638190994994372</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0575167723252421</v>
+        <v>0.05678622324473528</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01763022951437174</v>
+        <v>0.02113447527690096</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0889518344990694</v>
+        <v>0.08747069067259533</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01759990944928157</v>
+        <v>0.02112575352834349</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02803328105695108</v>
+        <v>0.02698565122603004</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02803328105695108</v>
+        <v>0.02698565122603004</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05711266550404012</v>
+        <v>0.05862680907626125</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01836482241080389</v>
+        <v>0.0220150784134385</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09111872523259534</v>
+        <v>0.08431906881022866</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0183332390096683</v>
+        <v>0.02200599325869114</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0287401490757262</v>
+        <v>0.02826620171860016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0287401490757262</v>
+        <v>0.02826620171860016</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0600808207980173</v>
+        <v>0.05487594118761718</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01909941530723605</v>
+        <v>0.02289568154997603</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0913996804738712</v>
+        <v>0.0829267074572631</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01906656857005504</v>
+        <v>0.02288623298903879</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02894443967327782</v>
+        <v>0.02735566776400887</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02894443967327782</v>
+        <v>0.02735566776400887</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0596661574310334</v>
+        <v>0.05910537358518095</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0198340082036682</v>
+        <v>0.02377628468651357</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08737013579510677</v>
+        <v>0.08690286546338216</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01979989813044177</v>
+        <v>0.02376647271938643</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02900856096433101</v>
+        <v>0.02803663133377042</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02900856096433101</v>
+        <v>0.02803663133377042</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05941674061516156</v>
+        <v>0.05768894556323259</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02056860110010036</v>
+        <v>0.02465688782305112</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09157002468433556</v>
+        <v>0.08406470121551768</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0205332276908285</v>
+        <v>0.02464671244973408</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02868024752871884</v>
+        <v>0.02836612199068023</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02868024752871884</v>
+        <v>0.02836612199068023</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05805025927107116</v>
+        <v>0.05875058503628988</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02130319399653252</v>
+        <v>0.02553749095958865</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0889881852495833</v>
+        <v>0.08399519217686885</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02126655725121523</v>
+        <v>0.02552695218008172</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02974238428423234</v>
+        <v>0.02827960831585952</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02974238428423234</v>
+        <v>0.02827960831585952</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05949582980907148</v>
+        <v>0.05682256268114422</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02203778689296467</v>
+        <v>0.02641809409612619</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08960794757561014</v>
+        <v>0.08981878456637987</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02199988681160197</v>
+        <v>0.02640719191042937</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02909183890582914</v>
+        <v>0.02853279564519144</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02909183890582914</v>
+        <v>0.02853279564519144</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05964892782840242</v>
+        <v>0.05855550147137364</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02277237978939683</v>
+        <v>0.02729869723266373</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09230044302294726</v>
+        <v>0.09003357874513718</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02273321637198869</v>
+        <v>0.02728743164077701</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0293496189068386</v>
+        <v>0.02852162111251966</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0293496189068386</v>
+        <v>0.02852162111251966</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05901111923679289</v>
+        <v>0.05903034553813521</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02350697268582898</v>
+        <v>0.02817930036920127</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09293058718989061</v>
+        <v>0.08813430027547337</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02346654593237543</v>
+        <v>0.02816767137112466</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02951021613547272</v>
+        <v>0.02790117273601854</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02951021613547272</v>
+        <v>0.02790117273601854</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06065755776208387</v>
+        <v>0.05674971409756782</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02424156558226114</v>
+        <v>0.02905990350573881</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09046268918871775</v>
+        <v>0.08915421783421651</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02419987549276216</v>
+        <v>0.02904791110147231</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02992520122836963</v>
+        <v>0.02853787372296203</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02992520122836963</v>
+        <v>0.02853787372296203</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06054014001635877</v>
+        <v>0.05724761840930773</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0249761584786933</v>
+        <v>0.02994050664227635</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09211113974927393</v>
+        <v>0.08697091180602795</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02493320505314889</v>
+        <v>0.02992815083181995</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03035129815949389</v>
+        <v>0.02763904055639514</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03035129815949389</v>
+        <v>0.02763904055639514</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06094294795118302</v>
+        <v>0.06061121298700328</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02571075137512545</v>
+        <v>0.03082110977881389</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09418716908951746</v>
+        <v>0.08756640433060242</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02566653461353562</v>
+        <v>0.0308083905621676</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02936041584566366</v>
+        <v>0.02940870821423915</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02936041584566366</v>
+        <v>0.02940870821423915</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06114909788649833</v>
+        <v>0.05717682598793355</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02644534427155761</v>
+        <v>0.03170171291535143</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09661581448156364</v>
+        <v>0.09263312448639144</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02639986417392235</v>
+        <v>0.03168863029251524</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03003250214934836</v>
+        <v>0.02945798805843899</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03003250214934836</v>
+        <v>0.02945798805843899</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06140783244952547</v>
+        <v>0.05991661066833467</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02717993716798976</v>
+        <v>0.03258231605188897</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09102774008338732</v>
+        <v>0.09007946554425328</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02713319373430909</v>
+        <v>0.03256887002286288</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03076517326385367</v>
+        <v>0.02877377372420739</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03076517326385367</v>
+        <v>0.02877377372420739</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06134774555316402</v>
+        <v>0.05795468582117907</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02791453006442192</v>
+        <v>0.03346291918842651</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09266394158933539</v>
+        <v>0.0916591368940321</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02786652329469582</v>
+        <v>0.03344910975321053</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02993922788510013</v>
+        <v>0.02871669356615392</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02993922788510013</v>
+        <v>0.02871669356615392</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06177789643675224</v>
+        <v>0.06077283739545764</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02864912296085407</v>
+        <v>0.03434352232496405</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09566694437078332</v>
+        <v>0.0937759925888404</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02859985285508255</v>
+        <v>0.03432934948355817</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03041651182485329</v>
+        <v>0.02823472437317241</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03041651182485329</v>
+        <v>0.02823472437317241</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0625841799923626</v>
+        <v>0.06126117414408833</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02938371585728623</v>
+        <v>0.03522412546150159</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09233375819846451</v>
+        <v>0.09421789658910956</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02933318241546929</v>
+        <v>0.03520958921390582</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03078032913272778</v>
+        <v>0.02925408795319287</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03078032913272778</v>
+        <v>0.02925408795319287</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06415135790327534</v>
+        <v>0.05910699110359463</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03011830875371839</v>
+        <v>0.03610472859803913</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09417163577948406</v>
+        <v>0.09413848626838012</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03006651197585601</v>
+        <v>0.03608982894425347</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0308582428035923</v>
+        <v>0.02884247965942129</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0308582428035923</v>
+        <v>0.02884247965942129</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06277259392624795</v>
+        <v>0.05960750810237525</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03085290165015054</v>
+        <v>0.03698533173457667</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09712844659541797</v>
+        <v>0.09269539177187464</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03079984153624275</v>
+        <v>0.03697006867460112</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03039916923151023</v>
+        <v>0.02919102821494701</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03039916923151023</v>
+        <v>0.02919102821494701</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06189715488389419</v>
+        <v>0.0591130677986956</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0315874945465827</v>
+        <v>0.03786593487111421</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09806682264190708</v>
+        <v>0.09280846094974721</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03153317109662948</v>
+        <v>0.03785030840494876</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03110155610866551</v>
+        <v>0.02996912476641556</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03110155610866551</v>
+        <v>0.02996912476641556</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06322001756095383</v>
+        <v>0.05983522737502678</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03232208744301485</v>
+        <v>0.03874653800765175</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0936385506407526</v>
+        <v>0.09240258731581263</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03226650065701622</v>
+        <v>0.0387305481352964</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03008814250471617</v>
+        <v>0.0297266525636662</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03008814250471617</v>
+        <v>0.0297266525636662</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06378655954906814</v>
+        <v>0.06210063662826992</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03305668033944701</v>
+        <v>0.03962714114418929</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09718458188772205</v>
+        <v>0.09377638140929095</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03299983021740294</v>
+        <v>0.03961078786564405</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03116047196236324</v>
+        <v>0.02908551531217289</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03116047196236324</v>
+        <v>0.02908551531217289</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06445516238724441</v>
+        <v>0.06171049994120442</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03379127323587917</v>
+        <v>0.04050774428072683</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09513879154586896</v>
+        <v>0.0899392682513373</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03373315977778968</v>
+        <v>0.0404910275959917</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03123278246312784</v>
+        <v>0.0290320520917273</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03123278246312784</v>
+        <v>0.0290320520917273</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06470203550001832</v>
+        <v>0.05984938899439321</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03452586613231132</v>
+        <v>0.04138834741726437</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09533330412951208</v>
+        <v>0.09121869223527224</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03446648933817641</v>
+        <v>0.04137126732633935</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0314399434613539</v>
+        <v>0.02906801153645529</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0314399434613539</v>
+        <v>0.02906801153645529</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06274310461919483</v>
+        <v>0.06046809777737833</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03526045902874347</v>
+        <v>0.04226895055380191</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09520382113695508</v>
+        <v>0.09088753099583735</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03519981889856314</v>
+        <v>0.04225150705668699</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03121766048236028</v>
+        <v>0.02985314301916309</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03121766048236028</v>
+        <v>0.02985314301916309</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06524528292822063</v>
+        <v>0.06051298346734249</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03599505192517563</v>
+        <v>0.04314955369033945</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09645657344892222</v>
+        <v>0.09370198423142717</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03593314845894988</v>
+        <v>0.04313174678703463</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03137332009715235</v>
+        <v>0.02917931996275153</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03137332009715235</v>
+        <v>0.02917931996275153</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06460652412162882</v>
+        <v>0.06285061965811523</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03672964482160779</v>
+        <v>0.04403015682687699</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09777668039566972</v>
+        <v>0.09406082426148438</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0366664780193366</v>
+        <v>0.04401198651738228</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03144649604204965</v>
+        <v>0.03058323215602876</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03144649604204965</v>
+        <v>0.03058323215602876</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06360166632631392</v>
+        <v>0.06089432361298888</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03746423771803994</v>
+        <v>0.04491075996341452</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09815835404188972</v>
+        <v>0.09523515335562688</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03739980757972334</v>
+        <v>0.04489222624772993</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03082880969127334</v>
+        <v>0.03032297429544938</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03082880969127334</v>
+        <v>0.03032297429544938</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0645836472179194</v>
+        <v>0.06318347916668163</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0381988306144721</v>
+        <v>0.04579136309995207</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09777090351383561</v>
+        <v>0.09270539805661598</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03813313714011007</v>
+        <v>0.04577246597807758</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03071060607817545</v>
+        <v>0.02924854319480123</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03071060607817545</v>
+        <v>0.02924854319480123</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06371049743991494</v>
+        <v>0.0611091018940674</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03893342351090425</v>
+        <v>0.04667196623648961</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09668913473473684</v>
+        <v>0.09267641344644661</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0388664667004968</v>
+        <v>0.04665270570842522</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03107017539250573</v>
+        <v>0.03030455917557248</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03107017539250573</v>
+        <v>0.03030455917557248</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06554022781212637</v>
+        <v>0.06144848997788799</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03966801640733641</v>
+        <v>0.04755256937302715</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09586806043370127</v>
+        <v>0.09116653622991772</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03959979626088354</v>
+        <v>0.04753294543877287</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.030906369488384</v>
+        <v>0.02959638173591983</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="J120" t="n">
-        <v>0.030906369488384</v>
+        <v>0.02959638173591983</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06421521848207951</v>
+        <v>0.06328084088298885</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04040260930376856</v>
+        <v>0.04843317250956469</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1004862800223271</v>
+        <v>0.09118513802912653</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04033312582127026</v>
+        <v>0.04841318516912051</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03134587847751555</v>
+        <v>0.02983088901814968</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03134587847751555</v>
+        <v>0.02983088901814968</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0665773645360585</v>
+        <v>0.06321350768248207</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04113720220020073</v>
+        <v>0.04931377564610223</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09588032620034931</v>
+        <v>0.09744725417813815</v>
       </c>
       <c r="O121" t="n">
-        <v>0.041066455381657</v>
+        <v>0.04929342489946816</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03136987975615778</v>
+        <v>0.02969974650037613</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03136987975615778</v>
+        <v>0.02969974650037613</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06523781506300949</v>
+        <v>0.06041272799671352</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04187179509663288</v>
+        <v>0.05019437878263976</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09791579030099812</v>
+        <v>0.09378545060274041</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04179978494204373</v>
+        <v>0.0501736646298158</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03077564181251152</v>
+        <v>0.02982031772992445</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03077564181251152</v>
+        <v>0.02982031772992445</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06611471575769562</v>
+        <v>0.06279324418868287</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04260638799306504</v>
+        <v>0.05107498191917731</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09592837692906669</v>
+        <v>0.09781320810094729</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04253311450243046</v>
+        <v>0.05105390436016344</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03211051363697633</v>
+        <v>0.03092888924480697</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03211051363697633</v>
+        <v>0.03092888924480697</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06532551366634223</v>
+        <v>0.06367645169260908</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04334098088949719</v>
+        <v>0.05195558505571485</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09772780369373052</v>
+        <v>0.09429524189824928</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04326644406281719</v>
+        <v>0.05193414409051109</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03164220339170748</v>
+        <v>0.03068446753664476</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03164220339170748</v>
+        <v>0.03068446753664476</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06409302997210342</v>
+        <v>0.06148726726792134</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04407557378592935</v>
+        <v>0.05283618819225239</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09974525026202724</v>
+        <v>0.09454606567183194</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04399977362320393</v>
+        <v>0.05281438382085873</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03180639858450071</v>
+        <v>0.02971220296560838</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03180639858450071</v>
+        <v>0.02971220296560838</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06521531400020089</v>
+        <v>0.06229323442969009</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04481016668236151</v>
+        <v>0.05371679132878993</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09792626396132942</v>
+        <v>0.0922084782690189</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04473310318359066</v>
+        <v>0.05369462355120638</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03219784966776075</v>
+        <v>0.03005432946378257</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03219784966776075</v>
+        <v>0.03005432946378257</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06685390360317822</v>
+        <v>0.06307526487844883</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04554475957879366</v>
+        <v>0.05459739446532746</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1019264894145652</v>
+        <v>0.09734237614149671</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04546643274397739</v>
+        <v>0.05457486328155402</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03101399499970631</v>
+        <v>0.03057346671493311</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03101399499970631</v>
+        <v>0.03057346671493311</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06680856773192106</v>
+        <v>0.06511495786937346</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04627935247522581</v>
+        <v>0.05547799760186501</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09643894820957866</v>
+        <v>0.09385444839399709</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04619976230436412</v>
+        <v>0.05545510301190167</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0315444611221096</v>
+        <v>0.02984188668004459</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0315444611221096</v>
+        <v>0.02984188668004459</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06425379705302969</v>
+        <v>0.064140734975277</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04701394537165797</v>
+        <v>0.05635860073840254</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09999472099585183</v>
+        <v>0.09799340431477516</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04693309186475086</v>
+        <v>0.05633534274224932</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03148541847726891</v>
+        <v>0.03067789116853675</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03148541847726891</v>
+        <v>0.03067789116853675</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06716419180654509</v>
+        <v>0.0612821194760351</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04774853826809013</v>
+        <v>0.05723920387494008</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1022004265758371</v>
+        <v>0.0969269828252074</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04766642142513759</v>
+        <v>0.05721558247259697</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03245386390206645</v>
+        <v>0.03144961224693447</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03245386390206645</v>
+        <v>0.03144961224693447</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06507313238062973</v>
+        <v>0.0616209562739308</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04848313116452228</v>
+        <v>0.05811980701147763</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09849473890976262</v>
+        <v>0.0945477819278977</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04839975098552432</v>
+        <v>0.05809582220294461</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03179502545408876</v>
+        <v>0.03120770603811997</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03179502545408876</v>
+        <v>0.03120770603811997</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06460324383656799</v>
+        <v>0.0621962024708746</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04921772406095443</v>
+        <v>0.05900041014801517</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09987712124177706</v>
+        <v>0.09903266764367114</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04913308054591106</v>
+        <v>0.05897606193329226</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0313212229056051</v>
+        <v>0.03050520774622792</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0313212229056051</v>
+        <v>0.03050520774622792</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06820480725988723</v>
+        <v>0.06481936410113256</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04995231695738659</v>
+        <v>0.0598810132845527</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1012166264878671</v>
+        <v>0.09543755497938844</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04986641010629778</v>
+        <v>0.05985630166363991</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03207472435796765</v>
+        <v>0.03055054129267996</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03207472435796765</v>
+        <v>0.03055054129267996</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0654406181903332</v>
+        <v>0.06418136806815405</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05068690985381875</v>
+        <v>0.06076161642109025</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09969723304037348</v>
+        <v>0.09583386138714889</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05059973966668452</v>
+        <v>0.06073654139398754</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03236147608777748</v>
+        <v>0.03148095946238329</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03236147608777748</v>
+        <v>0.03148095946238329</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06662351379765677</v>
+        <v>0.06538583220290517</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0514215027502509</v>
+        <v>0.06164221955762778</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09941267437994417</v>
+        <v>0.09470863563322413</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05133306922707125</v>
+        <v>0.06161678112433519</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03151828973629432</v>
+        <v>0.03032153689844862</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03151828973629432</v>
+        <v>0.03032153689844862</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06856265149192975</v>
+        <v>0.06583302859895268</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05215609564668305</v>
+        <v>0.06252282269416531</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09731675281785851</v>
+        <v>0.09426362277829559</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05206639878745798</v>
+        <v>0.06249702085468284</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03165979869836749</v>
+        <v>0.03054682295869779</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03165979869836749</v>
+        <v>0.03054682295869779</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06772857902939317</v>
+        <v>0.06449147956436513</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05289068854311521</v>
+        <v>0.06340342583070287</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1002648036662025</v>
+        <v>0.09386057168195994</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05279972834784471</v>
+        <v>0.06337726058503049</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0317266562005816</v>
+        <v>0.03128563441149239</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0317266562005816</v>
+        <v>0.03128563441149239</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06861136262272491</v>
+        <v>0.06441428104712565</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05362528143954737</v>
+        <v>0.06428402896724041</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1016249518007924</v>
+        <v>0.09824808221521425</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05353305790823144</v>
+        <v>0.06425750031537814</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.032759751861903</v>
+        <v>0.03142381417965252</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="J139" t="n">
-        <v>0.032759751861903</v>
+        <v>0.03142381417965252</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06702322622702203</v>
+        <v>0.06263243176964672</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05435987433597952</v>
+        <v>0.06516463210377794</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09934241598494981</v>
+        <v>0.09588026305045599</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05426638746861818</v>
+        <v>0.06513774004572577</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03181035364697565</v>
+        <v>0.03067416408572321</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03181035364697565</v>
+        <v>0.03067416408572321</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06572684295744977</v>
+        <v>0.06379317262307946</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05509446723241168</v>
+        <v>0.06604523524031548</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1011474119834749</v>
+        <v>0.09473883897620855</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05499971702900491</v>
+        <v>0.06601797977607342</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03234695823838676</v>
+        <v>0.03139348842509852</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03234695823838676</v>
+        <v>0.03139348842509852</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06743785991683429</v>
+        <v>0.06555574914388906</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05582906012884383</v>
+        <v>0.06692583837685302</v>
       </c>
       <c r="N141" t="n">
-        <v>0.100644211458412</v>
+        <v>0.100463855312346</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05573304658939164</v>
+        <v>0.06689821950642107</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03239825066794434</v>
+        <v>0.03160905159914509</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03239825066794434</v>
+        <v>0.03160905159914509</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06684937752339132</v>
+        <v>0.06501969590529807</v>
       </c>
       <c r="M142" t="n">
-        <v>0.056563653025276</v>
+        <v>0.06780644151339056</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09964582350694828</v>
+        <v>0.09875418523132989</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05646637614977838</v>
+        <v>0.06777845923676871</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0325791750425535</v>
+        <v>0.03163241863574072</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0325791750425535</v>
+        <v>0.03163241863574072</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0680812739109522</v>
+        <v>0.06502878652716876</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05729824592170814</v>
+        <v>0.0686870446499281</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09829858208830039</v>
+        <v>0.09645450950232753</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0571997057101651</v>
+        <v>0.06865869896711635</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03219620006323494</v>
+        <v>0.03126524657733952</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03219620006323494</v>
+        <v>0.03126524657733952</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06646432943851463</v>
+        <v>0.06499838679217226</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05803283881814031</v>
+        <v>0.06956764778646564</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1011721761787732</v>
+        <v>0.09828847033796356</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05793303527055184</v>
+        <v>0.069538938697464</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03272412262436998</v>
+        <v>0.0312182970595383</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03272412262436998</v>
+        <v>0.0312182970595383</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06767083856344419</v>
+        <v>0.06693196619358804</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05876743171457246</v>
+        <v>0.07044825092300318</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1020020372037241</v>
+        <v>0.1029873908211122</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05866636483093857</v>
+        <v>0.07041917842781165</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03173814225981325</v>
+        <v>0.03227827399223221</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03173814225981325</v>
+        <v>0.03227827399223221</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06848186470152234</v>
+        <v>0.0647151251529326</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05950202461100462</v>
+        <v>0.07132885405954073</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1034998640993999</v>
+        <v>0.09746776988291822</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05939969439132529</v>
+        <v>0.07129941815815929</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03301029912980277</v>
+        <v>0.03227057961517479</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03301029912980277</v>
+        <v>0.03227057961517479</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06861064253677632</v>
+        <v>0.06537281726750185</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06023661750743678</v>
+        <v>0.07220945719607826</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09897234265218435</v>
+        <v>0.09836448474380655</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06013302395171203</v>
+        <v>0.07217965788850694</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03216335208705791</v>
+        <v>0.03122055818947402</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03216335208705791</v>
+        <v>0.03122055818947402</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06830275198587224</v>
+        <v>0.06402904930533496</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06097121040386893</v>
+        <v>0.07309006033261579</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1011375197912415</v>
+        <v>0.102311374594398</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06086635351209877</v>
+        <v>0.07305989761885459</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03224923644753536</v>
+        <v>0.0325356208487009</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03224923644753536</v>
+        <v>0.0325356208487009</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06967097176125964</v>
+        <v>0.06399904636116108</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06170580330030109</v>
+        <v>0.07397066346915335</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1004921058339243</v>
+        <v>0.1025129227171815</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06159968307248549</v>
+        <v>0.07394013734920224</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03253427455167351</v>
+        <v>0.03278707627434541</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03253427455167351</v>
+        <v>0.03278707627434541</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06701928037772403</v>
+        <v>0.06616319630838763</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06244039619673324</v>
+        <v>0.07485126660569089</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1005219408805285</v>
+        <v>0.1024225874515721</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06233301263287223</v>
+        <v>0.07482037707954987</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03241583391524332</v>
+        <v>0.03154478346431701</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03241583391524332</v>
+        <v>0.03154478346431701</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06911920731220941</v>
+        <v>0.06551234701511166</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06317498909316539</v>
+        <v>0.07573186974222841</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1037393998403645</v>
+        <v>0.09852274573460745</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06306634219325896</v>
+        <v>0.07570061680989752</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03275010794734189</v>
+        <v>0.03246628896460077</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03275010794734189</v>
+        <v>0.03246628896460077</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06718300638268968</v>
+        <v>0.06452145066314444</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06390958198959755</v>
+        <v>0.07661247287876596</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1019259912105492</v>
+        <v>0.1007718125947411</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06379967175364569</v>
+        <v>0.07658085654024516</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03257159578093199</v>
+        <v>0.03156356300498037</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03257159578093199</v>
+        <v>0.03156356300498037</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0683527634082936</v>
+        <v>0.06789335811728267</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06464417488602971</v>
+        <v>0.0774930760153035</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1016301430706632</v>
+        <v>0.1008013522480072</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06453300131403243</v>
+        <v>0.07746109627059281</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03258951433616133</v>
+        <v>0.03254968460390988</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03258951433616133</v>
+        <v>0.03254968460390988</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06927840298264143</v>
+        <v>0.06697023089310147</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06537876778246186</v>
+        <v>0.07837367915184104</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1022865951912852</v>
+        <v>0.10013008740856</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06526633087441916</v>
+        <v>0.07834133600094045</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03317371032711754</v>
+        <v>0.03236011357277892</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03317371032711754</v>
+        <v>0.03236011357277892</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0686467212086499</v>
+        <v>0.06568448193023885</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06611336067889402</v>
+        <v>0.07925428228837858</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1002226814945202</v>
+        <v>0.1024100582585924</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06599966043480589</v>
+        <v>0.0792215757312881</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03199778733000694</v>
+        <v>0.03187872810495344</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03199778733000694</v>
+        <v>0.03187872810495344</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06847806886332772</v>
+        <v>0.0653330439614403</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06684795357532618</v>
+        <v>0.08013488542491612</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1030576604540744</v>
+        <v>0.09973605223342208</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06673298999519262</v>
+        <v>0.08010181546163575</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03253048123083135</v>
+        <v>0.0327506880095822</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03253048123083135</v>
+        <v>0.0327506880095822</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06737047622965323</v>
+        <v>0.06712639062941236</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06758254647175833</v>
+        <v>0.08101548856145366</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1002602485048212</v>
+        <v>0.09907295721207937</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06746631955557936</v>
+        <v>0.0809820551919834</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03324715590689607</v>
+        <v>0.03279716255924976</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03324715590689607</v>
+        <v>0.03279716255924976</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06741553359572472</v>
+        <v>0.06861108917542211</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06831713936819048</v>
+        <v>0.08189609169799121</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09962580165017149</v>
+        <v>0.09894795946337365</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06819964911596609</v>
+        <v>0.08186229492233105</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03334046359509679</v>
+        <v>0.03228840082391674</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03334046359509679</v>
+        <v>0.03228840082391674</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06812605315446352</v>
+        <v>0.06569206170726027</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06905173226462265</v>
+        <v>0.08277669483452874</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1024848164514999</v>
+        <v>0.1013830539142291</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06893297867635281</v>
+        <v>0.0827425346526787</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03319276850914314</v>
+        <v>0.03226028503309494</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03319276850914314</v>
+        <v>0.03226028503309494</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06865119904899655</v>
+        <v>0.06669598664874279</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06978632516105479</v>
+        <v>0.08365729797106627</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1019567084407872</v>
+        <v>0.1031152760848024</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06966630823673955</v>
+        <v>0.08362277438302634</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03214684099582155</v>
+        <v>0.03259310936656169</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03214684099582155</v>
+        <v>0.03259310936656169</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06860778585285143</v>
+        <v>0.06702927931270533</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07052091805748695</v>
+        <v>0.08453790110760383</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1046159532839185</v>
+        <v>0.104504496309105</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07039963779712628</v>
+        <v>0.08450301411337398</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03337905717003974</v>
+        <v>0.03247790906244008</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03337905717003974</v>
+        <v>0.03247790906244008</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0698279377972861</v>
+        <v>0.06552888617218894</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07125551095391912</v>
+        <v>0.08541850424414137</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1033929707112408</v>
+        <v>0.105629678410994</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07113296735751301</v>
+        <v>0.08538325384372163</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03288118602736918</v>
+        <v>0.03248800463166471</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03288118602736918</v>
+        <v>0.03248800463166471</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06760447516755971</v>
+        <v>0.06957707359020257</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07199010385035126</v>
+        <v>0.08629910738067889</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1028160036314266</v>
+        <v>0.1052239788980984</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07186629691789975</v>
+        <v>0.08626349357406926</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03317397524091541</v>
+        <v>0.03244793025663631</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03317397524091541</v>
+        <v>0.03244793025663631</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06970546814644774</v>
+        <v>0.06765533147731834</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07272469674678343</v>
+        <v>0.08717971051721643</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1005476623263495</v>
+        <v>0.1005585302882068</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07259962647828648</v>
+        <v>0.08714373330441691</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03287573667384129</v>
+        <v>0.03348283197802235</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03287573667384129</v>
+        <v>0.03348283197802235</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06863691090602073</v>
+        <v>0.06797297295867979</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07345928964321558</v>
+        <v>0.08806031365375398</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1019638343425532</v>
+        <v>0.105775883251346</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07333295603867321</v>
+        <v>0.08802397303476456</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03243554668975342</v>
+        <v>0.03352479586096267</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03243554668975342</v>
+        <v>0.03352479586096267</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06822743194510059</v>
+        <v>0.06873698970127198</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07419388253964773</v>
+        <v>0.08894091679029152</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1040267071335113</v>
+        <v>0.1041090169982055</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07406628559905995</v>
+        <v>0.08890421276511221</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0329196021199845</v>
+        <v>0.03225133902585237</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0329196021199845</v>
+        <v>0.03225133902585237</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06725328031815575</v>
+        <v>0.06738967842442306</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07492847543607989</v>
+        <v>0.08982151992682905</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1048511574021594</v>
+        <v>0.106387846422736</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07479961515944668</v>
+        <v>0.08978445249545985</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03274588964800298</v>
+        <v>0.03310399486273073</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03274588964800298</v>
+        <v>0.03310399486273073</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06836867326336571</v>
+        <v>0.07015158896769505</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07566306833251205</v>
+        <v>0.0907021230633666</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1008928377620676</v>
+        <v>0.1013153494203703</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07553294471983341</v>
+        <v>0.0906646922258075</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03258041664747732</v>
+        <v>0.03239405457146098</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03258041664747732</v>
+        <v>0.03239405457146098</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06767227609014809</v>
+        <v>0.06702035280265162</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0763976612289442</v>
+        <v>0.09158272619990414</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1016756063737152</v>
+        <v>0.1052641386429977</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07626627428022015</v>
+        <v>0.09154493195615515</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03285620842997652</v>
+        <v>0.0326885774970483</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03285620842997652</v>
+        <v>0.0326885774970483</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06847119583057537</v>
+        <v>0.06815138227362735</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07713225412537636</v>
+        <v>0.09246332933644168</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1009203539142456</v>
+        <v>0.1051458617643592</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07699960384060688</v>
+        <v>0.0924251716865028</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03239012895819415</v>
+        <v>0.03244954904438339</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03239012895819415</v>
+        <v>0.03244954904438339</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07030916860277425</v>
+        <v>0.07042700286251111</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0778668470218085</v>
+        <v>0.09334393247297922</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1015967597034773</v>
+        <v>0.1042217657263765</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0777329334009936</v>
+        <v>0.09330541141685043</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03282390031398069</v>
+        <v>0.03355821938251798</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03282390031398069</v>
+        <v>0.03355821938251798</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06944360611879288</v>
+        <v>0.06778652983458688</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07860143991824067</v>
+        <v>0.09422453560951675</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1031406244895265</v>
+        <v>0.102738205548471</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07846626296138033</v>
+        <v>0.09418565114719808</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03319950422979101</v>
+        <v>0.03255098720184101</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03319950422979101</v>
+        <v>0.03255098720184101</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06883464608118786</v>
+        <v>0.06952544486652751</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07933603281467282</v>
+        <v>0.09510513874605429</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1049266046622157</v>
+        <v>0.1018583863283229</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07919959252176707</v>
+        <v>0.09506589087754573</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03314108192333019</v>
+        <v>0.03395078519062497</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03314108192333019</v>
+        <v>0.03395078519062497</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06747688377378083</v>
+        <v>0.06995708029958775</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08007062571110497</v>
+        <v>0.09598574188259183</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1028290309257664</v>
+        <v>0.1024978009379412</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0799329220821538</v>
+        <v>0.09594613060789337</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03368338965726032</v>
+        <v>0.03396651125444387</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03368338965726032</v>
+        <v>0.03396651125444387</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06791798308985317</v>
+        <v>0.06806691998494493</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08080521860753713</v>
+        <v>0.09686634501912937</v>
       </c>
       <c r="N175" t="n">
-        <v>0.10208859948874</v>
+        <v>0.1042313085624059</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08066625164254053</v>
+        <v>0.09682637033824101</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03283998219584082</v>
+        <v>0.03262958322647387</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03283998219584082</v>
+        <v>0.03262958322647387</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06970626285556006</v>
+        <v>0.0675835281525633</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08153981150396929</v>
+        <v>0.09774694815566691</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1044360393543818</v>
+        <v>0.1070278792794461</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08139958120292727</v>
+        <v>0.09770661006858866</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03272278668044726</v>
+        <v>0.03289285685549438</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03272278668044726</v>
+        <v>0.03289285685549438</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06843788760240641</v>
+        <v>0.0703686311285921</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08227440440040146</v>
+        <v>0.09862755129220446</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1045112024001151</v>
+        <v>0.1057541347958607</v>
       </c>
       <c r="O177" t="n">
-        <v>0.082132910763314</v>
+        <v>0.09858684979893631</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03285506104827864</v>
+        <v>0.03319717351487496</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03285506104827864</v>
+        <v>0.03319717351487496</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06863080546491793</v>
+        <v>0.07072050385492001</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0830089972968336</v>
+        <v>0.09950815442874199</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1055455315509629</v>
+        <v>0.1039221214155072</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08286624032370073</v>
+        <v>0.09946708952928396</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03262885268668606</v>
+        <v>0.03323381703726788</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03262885268668606</v>
+        <v>0.03323381703726788</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07057343873415009</v>
+        <v>0.06918523108797459</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08374359019326576</v>
+        <v>0.1003887575652795</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1028753073469457</v>
+        <v>0.1024270947926222</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08359956988408747</v>
+        <v>0.1003473292596316</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03327969927091329</v>
+        <v>0.0333348960130801</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03327969927091329</v>
+        <v>0.0333348960130801</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07041313641328392</v>
+        <v>0.06940764151607662</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08447818308969791</v>
+        <v>0.1012693607018171</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1010666542540821</v>
+        <v>0.1047417627777485</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0843328994444742</v>
+        <v>0.1012275689899792</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0326509703938217</v>
+        <v>0.03418026371030332</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0326509703938217</v>
+        <v>0.03418026371030332</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06967809210065332</v>
+        <v>0.06900679242470245</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08521277598613007</v>
+        <v>0.1021499638383546</v>
       </c>
       <c r="N181" t="n">
-        <v>0.105223103808876</v>
+        <v>0.1021607389107576</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08506622900486092</v>
+        <v>0.1021078087203269</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03313384660395542</v>
+        <v>0.03339399655068814</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03313384660395542</v>
+        <v>0.03339399655068814</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06910033155156631</v>
+        <v>0.07003650767004674</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08594736888256223</v>
+        <v>0.1030305669748921</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1023427782064133</v>
+        <v>0.1043507307358547</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08579955856524767</v>
+        <v>0.1029880484506745</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03311481390797334</v>
+        <v>0.03437049927697074</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03311481390797334</v>
+        <v>0.03437049927697074</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06884017541463405</v>
+        <v>0.06744112380228617</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08668196177899438</v>
+        <v>0.1039111701114297</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1030447860638023</v>
+        <v>0.1063337358468951</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08653288812563438</v>
+        <v>0.1038682881810222</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03333936965177299</v>
+        <v>0.03366462386788686</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03333936965177299</v>
+        <v>0.03366462386788686</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06853171317004453</v>
+        <v>0.0671831621173225</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08741655467542653</v>
+        <v>0.1047917732479672</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1050110641216885</v>
+        <v>0.1055661146995198</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08726621768602112</v>
+        <v>0.1047485279113698</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03275958246705357</v>
+        <v>0.03354422745323071</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03275958246705357</v>
+        <v>0.03354422745323071</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06892726693083234</v>
+        <v>0.06968941721671962</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0881511475718587</v>
+        <v>0.1056723763845048</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1057327037035797</v>
+        <v>0.1052391165809347</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08799954724640786</v>
+        <v>0.1056287676417175</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03366991518544994</v>
+        <v>0.0342671762403127</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03366991518544994</v>
+        <v>0.0342671762403127</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07118110540553008</v>
+        <v>0.07089632567961976</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08888574046829084</v>
+        <v>0.1065529795210423</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1040301231257411</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08873287680679458</v>
+        <v>0.1065090073720651</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03359981751642177</v>
+        <v>0.0336669259602131</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03359981751642177</v>
+        <v>0.0336669259602131</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06792339377688511</v>
+        <v>0.07076582135241807</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08962033336472301</v>
+        <v>0.1074335826575799</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1019173532790687</v>
+        <v>0.1036391704534942</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08946620636718132</v>
+        <v>0.1073892471024128</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0333545348323826</v>
+        <v>0.03404472780286423</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0333545348323826</v>
+        <v>0.03404472780286423</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06904276099836826</v>
+        <v>0.07055679130489539</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09035492626115516</v>
+        <v>0.1083141857941174</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1027282738136611</v>
+        <v>0.108974621320883</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09019953592756806</v>
+        <v>0.1082694868327604</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0337524728584546</v>
+        <v>0.03446152945926129</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0337524728584546</v>
+        <v>0.03446152945926129</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06856023520109394</v>
+        <v>0.07038670162778868</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09108951915758731</v>
+        <v>0.1091947889306549</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1054340279617605</v>
+        <v>0.1041013217553156</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09093286548795478</v>
+        <v>0.109149726563108</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03276974628418784</v>
+        <v>0.03430228045462837</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03276974628418784</v>
+        <v>0.03430228045462837</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07014545858156807</v>
+        <v>0.06952273497282338</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09182411205401947</v>
+        <v>0.1100753920671925</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1032130878125336</v>
+        <v>0.1039050266105668</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09166619504834152</v>
+        <v>0.1100299662934557</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03315161399962147</v>
+        <v>0.03381277381412136</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03315161399962147</v>
+        <v>0.03381277381412136</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06922579373683488</v>
+        <v>0.06892385381842739</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09255870495045163</v>
+        <v>0.11095599520373</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1032900157767959</v>
+        <v>0.1024941527061218</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09239952460872825</v>
+        <v>0.1109102060238033</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03410177607696982</v>
+        <v>0.03372707360477145</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03410177607696982</v>
+        <v>0.03372707360477145</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06842067611216188</v>
+        <v>0.06743850345262539</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09329329784688378</v>
+        <v>0.1118365983402675</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1024976449613491</v>
+        <v>0.106555786067894</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09313285416911497</v>
+        <v>0.111790445754151</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0338042975439912</v>
+        <v>0.03394201931685714</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0338042975439912</v>
+        <v>0.03394201931685714</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06760351971587733</v>
+        <v>0.06898825367578862</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09402789074331594</v>
+        <v>0.1127172014768051</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1026247082215339</v>
+        <v>0.1033031992173808</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09386618372950171</v>
+        <v>0.1126706854844986</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03299671564167528</v>
+        <v>0.03374626640940809</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03299671564167528</v>
+        <v>0.03374626640940809</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07001727433114172</v>
+        <v>0.0691443520082258</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0947624836397481</v>
+        <v>0.1135978046133426</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1050426129618474</v>
+        <v>0.1043106588464614</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09459951328988844</v>
+        <v>0.1135509252148463</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03357113864510139</v>
+        <v>0.03380147936749298</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03357113864510139</v>
+        <v>0.03380147936749298</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06910546407064941</v>
+        <v>0.07139296327763456</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09549707653618025</v>
+        <v>0.1144784077498802</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1041830202439831</v>
+        <v>0.1033828612521806</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09533284285027517</v>
+        <v>0.1144311649451939</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03354897201474487</v>
+        <v>0.033791780616934</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03354897201474487</v>
+        <v>0.033791780616934</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07060108459146805</v>
+        <v>0.06903976155312727</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09623166943261241</v>
+        <v>0.1153590108864177</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1069936419762716</v>
+        <v>0.1037668335608286</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09606617241066191</v>
+        <v>0.1153114046755416</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03363640797555623</v>
+        <v>0.03320731870123114</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03363640797555623</v>
+        <v>0.03320731870123114</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07023654480206432</v>
+        <v>0.06954752818081139</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09696626232904455</v>
+        <v>0.1162396140229553</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1059478582495018</v>
+        <v>0.1064938933825489</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09679950197104864</v>
+        <v>0.1161916444058892</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03424276442077159</v>
+        <v>0.03325357458226331</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03424276442077159</v>
+        <v>0.03325357458226331</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07057039403220292</v>
+        <v>0.06847802010426604</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09770085522547672</v>
+        <v>0.1171202171594928</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1062469598003582</v>
+        <v>0.104068002000789</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09753283153143537</v>
+        <v>0.1170718841362369</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03304639162650908</v>
+        <v>0.03432893320323019</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03304639162650908</v>
+        <v>0.03432893320323019</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06951135970551969</v>
+        <v>0.06974797404647148</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09843544812190887</v>
+        <v>0.1180008202960303</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1042697201331331</v>
+        <v>0.1026586233800658</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09826616109182211</v>
+        <v>0.1179521238665845</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03394721931334981</v>
+        <v>0.03335585186741277</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03394721931334981</v>
+        <v>0.03335585186741277</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06845591422285655</v>
+        <v>0.07182971482128481</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09917004101834104</v>
+        <v>0.1188814234325679</v>
       </c>
       <c r="N200" t="n">
-        <v>0.106736323700737</v>
+        <v>0.1093648298511868</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09899949065220884</v>
+        <v>0.1188323635969322</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03379105928160654</v>
+        <v>0.03445502800959904</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03379105928160654</v>
+        <v>0.03445502800959904</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07069360629602128</v>
+        <v>0.06894405761435976</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09990463391477318</v>
+        <v>0.1197620265691054</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1040429875338457</v>
+        <v>0.1055958861618958</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09973282021259557</v>
+        <v>0.1197126033272798</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03404478084514841</v>
+        <v>0.03328388119549792</v>
       </c>
       <c r="G202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03404478084514841</v>
+        <v>0.03328388119549792</v>
       </c>
       <c r="K202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06879463074117731</v>
+        <v>0.07170226016509465</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1006392268112053</v>
+        <v>0.1206426297056429</v>
       </c>
       <c r="N202" t="n">
-        <v>0.10560902768493</v>
+        <v>0.1054272170171269</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1004661497729823</v>
+        <v>0.1205928430576274</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03412357010856593</v>
+        <v>0.03438787345180604</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03412357010856593</v>
+        <v>0.03438787345180604</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06810090667681079</v>
+        <v>0.07024755218478881</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1013738197076375</v>
+        <v>0.1215232328421805</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1064676249327351</v>
+        <v>0.1086410142991216</v>
       </c>
       <c r="O203" t="n">
-        <v>0.101199479333369</v>
+        <v>0.1214730827879751</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0335210852785898</v>
+        <v>0.03476482121801826</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0335210852785898</v>
+        <v>0.03476482121801826</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07124519849601527</v>
+        <v>0.07177864935500533</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1021084126040697</v>
+        <v>0.122403835978718</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1041838487339102</v>
+        <v>0.1054608564421475</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1019328088937558</v>
+        <v>0.1223533225183227</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03319385183568051</v>
+        <v>0.03489457079407091</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03319385183568051</v>
+        <v>0.03489457079407091</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0704711336768763</v>
+        <v>0.07022425821057401</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1028430055005018</v>
+        <v>0.1232844391152556</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1034191451817444</v>
+        <v>0.1065033959806161</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1026661384541425</v>
+        <v>0.1232335622486704</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03365795668107061</v>
+        <v>0.03375237679771266</v>
       </c>
       <c r="G206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03365795668107061</v>
+        <v>0.03375237679771266</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06948539446148991</v>
+        <v>0.06891148760322999</v>
       </c>
       <c r="M206" t="n">
-        <v>0.103577598396934</v>
+        <v>0.1241650422517931</v>
       </c>
       <c r="N206" t="n">
-        <v>0.104845302569001</v>
+        <v>0.1053695872418666</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1033994680145292</v>
+        <v>0.124113801979018</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0335835101641826</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0335835101641826</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06767960804705431</v>
+        <v>0.07109226786605977</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1043121912933661</v>
+        <v>0.1250456453883306</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1059064862042274</v>
+        <v>0.1040990072555187</v>
       </c>
       <c r="O207" t="n">
-        <v>0.104132797574916</v>
+        <v>0.1249940417093657</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03334790272862394</v>
+        <v>0.0342339846563232</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03334790272862394</v>
+        <v>0.0342339846563232</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06884292099018383</v>
+        <v>0.06938871718485803</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1050467841897983</v>
+        <v>0.1259262485248682</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1051665943637137</v>
+        <v>0.1077115718202565</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1048661271353027</v>
+        <v>0.1258742814397133</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03440831893191962</v>
+        <v>0.03474332361769289</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03440831893191962</v>
+        <v>0.03474332361769289</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07072582463250343</v>
+        <v>0.07208156571022753</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1057813770862304</v>
+        <v>0.1268068516614057</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1050467370796264</v>
+        <v>0.1063394990428718</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1055994566956894</v>
+        <v>0.126754521170061</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03383649944171616</v>
+        <v>0.03453377053160435</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03383649944171616</v>
+        <v>0.03453377053160435</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07069550150921303</v>
+        <v>0.07023677697631797</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1065159699826626</v>
+        <v>0.1276874547979433</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1063190937733305</v>
+        <v>0.1067309520254897</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1063327862560762</v>
+        <v>0.1276347609004086</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03355373147573437</v>
+        <v>0.03496946005937071</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03355373147573437</v>
+        <v>0.03496946005937071</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06857301617622952</v>
+        <v>0.07269595781552166</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1072505628790947</v>
+        <v>0.1285680579344808</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1070472138641682</v>
+        <v>0.106357379419903</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1070661158164629</v>
+        <v>0.1285150006307563</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03437830436039706</v>
+        <v>0.03434604949674129</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03437830436039706</v>
+        <v>0.03434604949674129</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06907948878733378</v>
+        <v>0.07137456177601215</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1079851557755269</v>
+        <v>0.1294486610710184</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1063948524274244</v>
+        <v>0.1079622213617279</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1077994453768496</v>
+        <v>0.1293952403611039</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03421832141492219</v>
+        <v>0.0347056320665413</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03421832141492219</v>
+        <v>0.0347056320665413</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06976881171875618</v>
+        <v>0.07136168818295993</v>
       </c>
       <c r="M213" t="n">
-        <v>0.108719748671959</v>
+        <v>0.1303292642075559</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1079280397515087</v>
+        <v>0.1074158144052425</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1085327749372364</v>
+        <v>0.1302754800914515</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03391479749333047</v>
+        <v>0.03471548205266414</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03391479749333047</v>
+        <v>0.03471548205266414</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06937130819862325</v>
+        <v>0.07162137640076782</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1094543415683912</v>
+        <v>0.1312098673440934</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1088452797018511</v>
+        <v>0.1094635058828163</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1092661044976231</v>
+        <v>0.1311557198217992</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03392899991497106</v>
+        <v>0.03461790304973954</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03392899991497106</v>
+        <v>0.03461790304973954</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07094595947731538</v>
+        <v>0.07166213570713342</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1101889344648234</v>
+        <v>0.132090470480631</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1071886355037646</v>
+        <v>0.1084366246573601</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1099994340580098</v>
+        <v>0.1320359595521468</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03349013860355743</v>
+        <v>0.03376741104404012</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03349013860355743</v>
+        <v>0.03376741104404012</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06864226607213086</v>
+        <v>0.0698008494098401</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1109235273612555</v>
+        <v>0.1329710736171685</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1067319587518258</v>
+        <v>0.1087464832049896</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1107327636183965</v>
+        <v>0.1329161992824945</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03470360057942788</v>
+        <v>0.03399582396818085</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03470360057942788</v>
+        <v>0.03399582396818085</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06894889837940488</v>
+        <v>0.06971811193601968</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1116581202576877</v>
+        <v>0.133851676753706</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1049814444798615</v>
+        <v>0.1077461207667747</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1114660931787833</v>
+        <v>0.1337964390128421</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03441148541914472</v>
+        <v>0.03403958369722558</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03441148541914472</v>
+        <v>0.03403958369722558</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06966637989704824</v>
+        <v>0.06933480266282879</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1123927131541198</v>
+        <v>0.1347322798902436</v>
       </c>
       <c r="N218" t="n">
-        <v>0.105518508945306</v>
+        <v>0.1068094947498511</v>
       </c>
       <c r="O218" t="n">
-        <v>0.11219942273917</v>
+        <v>0.1346766787431898</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03438309743270897</v>
+        <v>0.03360432679343602</v>
       </c>
       <c r="G219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03438309743270897</v>
+        <v>0.03360432679343602</v>
       </c>
       <c r="K219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06975631453715186</v>
+        <v>0.07171655120148829</v>
       </c>
       <c r="M219" t="n">
-        <v>0.113127306050552</v>
+        <v>0.1356128830267811</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1058554007179972</v>
+        <v>0.1035614084280106</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1129327522995568</v>
+        <v>0.1355569184735374</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03345677028484394</v>
+        <v>0.03373770127336488</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03345677028484394</v>
+        <v>0.03373770127336488</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07132228298823493</v>
+        <v>0.06991627086266108</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1138618989469841</v>
+        <v>0.1364934861633187</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1067360034906071</v>
+        <v>0.1074592877856348</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1136660818599435</v>
+        <v>0.1364371582038851</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03356542624127085</v>
+        <v>0.03347078033541341</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03356542624127085</v>
+        <v>0.03347078033541341</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07057185843017849</v>
+        <v>0.07032078401092701</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1145964918434163</v>
+        <v>0.1373740892998562</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1044039984130424</v>
+        <v>0.1073483180377671</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1143994114203302</v>
+        <v>0.1373173979342327</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03377401587772977</v>
+        <v>0.03465876955066705</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03377401587772977</v>
+        <v>0.03465876955066705</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07120185092530176</v>
+        <v>0.07029007623686237</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1153310847398485</v>
+        <v>0.1382546924363937</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1077795620058792</v>
+        <v>0.1100589711586163</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1151327409807169</v>
+        <v>0.1381976376645804</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03384162456841819</v>
+        <v>0.03459988982820969</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03384162456841819</v>
+        <v>0.03459988982820969</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07130400356342323</v>
+        <v>0.07036940099623853</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1160656776362806</v>
+        <v>0.1391352955729313</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1050381118357971</v>
+        <v>0.1068398854185263</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1158660705411037</v>
+        <v>0.139077877394928</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03385458813034344</v>
+        <v>0.03411786750605962</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03385458813034344</v>
+        <v>0.03411786750605962</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06994957337138971</v>
+        <v>0.06934011010428048</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1168002705327128</v>
+        <v>0.1400158987094688</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1079724878962922</v>
+        <v>0.1103593625873697</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1165994001014904</v>
+        <v>0.1399581171252756</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03439224556129639</v>
+        <v>0.03506780679888508</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03439224556129639</v>
+        <v>0.03506780679888508</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06952380568542327</v>
+        <v>0.07292622270034813</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1175348634291449</v>
+        <v>0.1408965018460064</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1064740518378108</v>
+        <v>0.1039806584551053</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1173327296618771</v>
+        <v>0.1408383568556233</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03380360416665371</v>
+        <v>0.03485280891795869</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03380360416665371</v>
+        <v>0.03485280891795869</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06794370788589066</v>
+        <v>0.07075888425851165</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1182694563255771</v>
+        <v>0.1417771049825439</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1072953799365055</v>
+        <v>0.1039875823555214</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1180660592222639</v>
+        <v>0.1417185965859709</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03451723764598023</v>
+        <v>0.03472964932720117</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03451723764598023</v>
+        <v>0.03472964932720117</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07067880086938777</v>
+        <v>0.07333658266009016</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1190040492220092</v>
+        <v>0.1426577081190815</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1058325712384327</v>
+        <v>0.1089504383061171</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1187993887826506</v>
+        <v>0.1425988363163186</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03475212067505332</v>
+        <v>0.03493007322264813</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03475212067505332</v>
+        <v>0.03493007322264813</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06962948170097139</v>
+        <v>0.07256061941627906</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1197386421184414</v>
+        <v>0.143538311255619</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1049135167103474</v>
+        <v>0.1064638449582933</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1195327183430373</v>
+        <v>0.1434790760466662</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03417572499039691</v>
+        <v>0.03529792911244133</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03417572499039691</v>
+        <v>0.03529792911244133</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07142426342153022</v>
+        <v>0.07281381302565923</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1204732350148736</v>
+        <v>0.1444189143921565</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1052144436834022</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1202660479034241</v>
+        <v>0.1443593157770139</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03413288870607695</v>
+        <v>0.03372627565809896</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03413288870607695</v>
+        <v>0.03372627565809896</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07063631131407347</v>
+        <v>0.06997735548077702</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1212078279113057</v>
+        <v>0.1452995175286941</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1064474800407587</v>
+        <v>0.11080803947049</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1209993774638108</v>
+        <v>0.1452395555073615</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03356439397243208</v>
+        <v>0.03446591001808355</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03356439397243208</v>
+        <v>0.03446591001808355</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06917284569031451</v>
+        <v>0.07066113498158696</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1219424208077379</v>
+        <v>0.1461801206652316</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1070819897727902</v>
+        <v>0.1087086384123326</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1217327070241975</v>
+        <v>0.1461197952377092</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03504610853898721</v>
       </c>
       <c r="G232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03504610853898721</v>
       </c>
       <c r="K232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0707553329911858</v>
+        <v>0.06923803434690007</v>
       </c>
       <c r="M232" t="n">
-        <v>0.12267701370417</v>
+        <v>0.1470607238017692</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1075072595834193</v>
+        <v>0.1100035298559403</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1224660365845843</v>
+        <v>0.1470000349680568</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03467431371058624</v>
+        <v>0.03409461610122871</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03467431371058624</v>
+        <v>0.03409461610122871</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07107184783574252</v>
+        <v>0.07101811424575039</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1234116066006022</v>
+        <v>0.1479413269383067</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1075663765952494</v>
+        <v>0.1064826090098744</v>
       </c>
       <c r="O233" t="n">
-        <v>0.123199366144971</v>
+        <v>0.1478802746984045</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03360071890462368</v>
+        <v>0.03512985409053609</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03360071890462368</v>
+        <v>0.03512985409053609</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06907850897105541</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1241461994970343</v>
+        <v>0.1488219300748442</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1097955539846626</v>
+        <v>0.1050346243381862</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1239326957053577</v>
+        <v>0.1487605144287521</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03367260520716031</v>
+        <v>0.03490953647283269</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03367260520716031</v>
+        <v>0.03490953647283269</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06840919830823614</v>
+        <v>0.07056442622607423</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1248807923934665</v>
+        <v>0.1497025332113818</v>
       </c>
       <c r="N235" t="n">
-        <v>0.107692137606187</v>
+        <v>0.1085511536940555</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1246660252657445</v>
+        <v>0.1496407541590997</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03416737022665377</v>
+        <v>0.03393954521526948</v>
       </c>
       <c r="G236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03416737022665377</v>
+        <v>0.03393954521526948</v>
       </c>
       <c r="K236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07043837224772725</v>
+        <v>0.06964876310456894</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1256153852898986</v>
+        <v>0.1505831363479193</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1040318845996736</v>
+        <v>0.1085556776811181</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1253993548261312</v>
+        <v>0.1505209938894474</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03442135677210147</v>
+        <v>0.03499124223874563</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03442135677210147</v>
+        <v>0.03499124223874563</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0711638965438158</v>
+        <v>0.07114772571463568</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1263499781863308</v>
+        <v>0.1514637394844568</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1074291544102517</v>
+        <v>0.1068965309544557</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1261326843865179</v>
+        <v>0.151401233619795</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03413903287912121</v>
+        <v>0.03409484106829536</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03413903287912121</v>
+        <v>0.03409484106829536</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07148427524983084</v>
+        <v>0.07112852566819489</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1270845710827629</v>
+        <v>0.1523443426209944</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1069026847694449</v>
+        <v>0.1055510869687679</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1268660139469047</v>
+        <v>0.1522814733501427</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03390725639329856</v>
+        <v>0.03515796376659025</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03390725639329856</v>
+        <v>0.03515796376659025</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06919130276564572</v>
+        <v>0.07149722094606917</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1278191639791951</v>
+        <v>0.1532249457575319</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1085582256073118</v>
+        <v>0.1050442639291893</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1275993435072914</v>
+        <v>0.1531617130804903</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03409537280946737</v>
+        <v>0.03402309853165898</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03409537280946737</v>
+        <v>0.03402309853165898</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06897922472686011</v>
+        <v>0.0713538269518455</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1285537568756273</v>
+        <v>0.1541055488940695</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1042566649237677</v>
+        <v>0.1060252952832869</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1283326730676781</v>
+        <v>0.154041952810838</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03378172282832434</v>
+        <v>0.03401045450734252</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03378172282832434</v>
+        <v>0.03401045450734252</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07187524323275657</v>
+        <v>0.07054565516059574</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1292883497720594</v>
+        <v>0.154986152030607</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1064828444897544</v>
+        <v>0.1069845928168401</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1290660026280649</v>
+        <v>0.1549221925411856</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03449619598817069</v>
+        <v>0.03523572963240704</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03449619598817069</v>
+        <v>0.03523572963240704</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07004620935634345</v>
+        <v>0.07215300073615991</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1300229426684916</v>
+        <v>0.1558667551671445</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1057062997497182</v>
+        <v>0.1063154824347227</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1297993321884516</v>
+        <v>0.1558024322715333</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03377078728975258</v>
+        <v>0.03538496429711445</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03377078728975258</v>
+        <v>0.03538496429711445</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07193653118536547</v>
+        <v>0.0733158622452233</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1307575355649237</v>
+        <v>0.1567473583036821</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1066275691713301</v>
+        <v>0.1098273674821972</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1305326617488383</v>
+        <v>0.1566826720018809</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03430720042824457</v>
+        <v>0.03426174658503786</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03430720042824457</v>
+        <v>0.03426174658503786</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07300396148875424</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1314921284613559</v>
+        <v>0.1576279614402196</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1063496428103599</v>
+        <v>0.1068854925230635</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1312659913092251</v>
+        <v>0.1575629117322286</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03448093081079473</v>
+        <v>0.03517902409948635</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03448093081079473</v>
+        <v>0.03517902409948635</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07036359127564634</v>
+        <v>0.07282351020676628</v>
       </c>
       <c r="M245" t="n">
-        <v>0.132226721357788</v>
+        <v>0.1585085645767572</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1063372121051531</v>
+        <v>0.1057688625696493</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1319993208696118</v>
+        <v>0.1584431514625762</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03433759980516744</v>
+        <v>0.03537664065027692</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03433759980516744</v>
+        <v>0.03537664065027692</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07015168845683628</v>
+        <v>0.07211038678581425</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1329613142542202</v>
+        <v>0.1593891677132947</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1072306117387639</v>
+        <v>0.1094006509382678</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1327326504299985</v>
+        <v>0.1593233911929239</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.034780600724648</v>
+        <v>0.03506769013374131</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="J247" t="n">
-        <v>0.034780600724648</v>
+        <v>0.03506769013374131</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07238862315969882</v>
+        <v>0.06978779830658838</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1336959071506524</v>
+        <v>0.1602697708498322</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1076168801609736</v>
+        <v>0.1112065913072331</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1334659799903852</v>
+        <v>0.1602036309232715</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03388425791797117</v>
+        <v>0.03445819670402071</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03388425791797117</v>
+        <v>0.03445819670402071</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07029450035888635</v>
+        <v>0.07003723802487008</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1344305000470845</v>
+        <v>0.1611503739863698</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1053651172819525</v>
+        <v>0.1110066935099308</v>
       </c>
       <c r="O248" t="n">
-        <v>0.134199309550772</v>
+        <v>0.1610838706536191</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03484751812033038</v>
+        <v>0.034946016158333</v>
       </c>
       <c r="G249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03484751812033038</v>
+        <v>0.034946016158333</v>
       </c>
       <c r="K249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07162319405238102</v>
+        <v>0.06999677460304146</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1351650929435167</v>
+        <v>0.1620309771229073</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1087505778120763</v>
+        <v>0.1088336642703417</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1349326391111587</v>
+        <v>0.1619641103839668</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03442361907174465</v>
+        <v>0.03429969352185108</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03442361907174465</v>
+        <v>0.03429969352185108</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07068227365107194</v>
+        <v>0.07238697820797119</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1358996858399488</v>
+        <v>0.1629115802594449</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1061994382525462</v>
+        <v>0.1071563262605001</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1356659686715455</v>
+        <v>0.1628443501143144</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03472896761514586</v>
+        <v>0.03491770114961136</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03472896761514586</v>
+        <v>0.03491770114961136</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06983115651024271</v>
+        <v>0.07298899094040262</v>
       </c>
       <c r="M251" t="n">
-        <v>0.136634278736381</v>
+        <v>0.1637921833959824</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1055932134386742</v>
+        <v>0.1080671639158887</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1363992982319322</v>
+        <v>0.1637245898446621</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03444871328202236</v>
+        <v>0.03487876452236047</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03444871328202236</v>
+        <v>0.03487876452236047</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07080609548403455</v>
+        <v>0.07024993667126972</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1373688716328131</v>
+        <v>0.1646727865325199</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1056626797320341</v>
+        <v>0.1054456778752904</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1371326277923189</v>
+        <v>0.1646048295750097</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03499271720602418</v>
+        <v>0.03519033424399855</v>
       </c>
       <c r="G253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03499271720602418</v>
+        <v>0.03519033424399855</v>
       </c>
       <c r="K253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06880105565816261</v>
+        <v>0.06993972071011448</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1381034645292453</v>
+        <v>0.1655533896690575</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1070132741708315</v>
+        <v>0.108620502888584</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1378659573527056</v>
+        <v>0.1654850693053574</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03465978056777445</v>
+        <v>0.03398817498028256</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03465978056777445</v>
+        <v>0.03398817498028256</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07197381346850912</v>
+        <v>0.07273612607620591</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1388380574256774</v>
+        <v>0.166433992805595</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1089604703206366</v>
+        <v>0.1054471719443872</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1385992869130924</v>
+        <v>0.166365309035705</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03448419816016057</v>
+        <v>0.03436668964553481</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03448419816016057</v>
+        <v>0.03436668964553481</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07042354117538205</v>
+        <v>0.07267969361442728</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1395726503221096</v>
+        <v>0.1673145959421325</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1087225694302818</v>
+        <v>0.1074421523729129</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1393326164734791</v>
+        <v>0.1672455487660527</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03388592632567167</v>
+        <v>0.03402103929523712</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03388592632567167</v>
+        <v>0.03402103929523712</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07124516920549148</v>
+        <v>0.07187888875924225</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1403072432185418</v>
+        <v>0.1681951990786701</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1100582387547924</v>
+        <v>0.1059246603474743</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1400659460338659</v>
+        <v>0.1681257884964003</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0342747590107759</v>
+        <v>0.03518371604354609</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0342747590107759</v>
+        <v>0.03518371604354609</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07202386112970294</v>
+        <v>0.07345175570218324</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1410418361149739</v>
+        <v>0.1690758022152077</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1049545374905178</v>
+        <v>0.108932533571843</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1407992755942526</v>
+        <v>0.169006028226748</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0339730082719551</v>
+        <v>0.03458419732684656</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0339730082719551</v>
+        <v>0.03458419732684656</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.070683832873151</v>
+        <v>0.07293763658558924</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1417764290114061</v>
+        <v>0.1699564053517452</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1100476393494925</v>
+        <v>0.1121235951536544</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1415326051546393</v>
+        <v>0.1698862679570956</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03479153096407724</v>
+        <v>0.03456439039986023</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03479153096407724</v>
+        <v>0.03456439039986023</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06923384115061723</v>
+        <v>0.07153398111693721</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1425110219078382</v>
+        <v>0.1708370084882827</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1071137662258947</v>
+        <v>0.1117172930044144</v>
       </c>
       <c r="O259" t="n">
-        <v>0.142265934715026</v>
+        <v>0.1707665076874433</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03482713575798298</v>
+        <v>0.0347451467306258</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03482713575798298</v>
+        <v>0.0347451467306258</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07155514756126585</v>
+        <v>0.07214898651775617</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1432456148042704</v>
+        <v>0.1717176116248202</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1077971294424399</v>
+        <v>0.105320112742128</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1429992642754128</v>
+        <v>0.1716467474177909</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03485216569144799</v>
+        <v>0.03489333631054065</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03485216569144799</v>
+        <v>0.03489333631054065</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07123638422193926</v>
+        <v>0.07369598987539527</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1439802077007025</v>
+        <v>0.1725982147613578</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1052406272314089</v>
+        <v>0.1108020225299412</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1437325938357995</v>
+        <v>0.1725269871481385</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03471753071322707</v>
+        <v>0.03533170642184302</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03471753071322707</v>
+        <v>0.03533170642184302</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06964194847990651</v>
+        <v>0.07192296524620601</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1447148005971347</v>
+        <v>0.1734788178978953</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1091873974498936</v>
+        <v>0.1095084646781815</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1444659233961862</v>
+        <v>0.1734072268784862</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03441747163495398</v>
+        <v>0.0344349324866414</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03441747163495398</v>
+        <v>0.0344349324866414</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07043405914207115</v>
+        <v>0.07255714248816517</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1454493934935669</v>
+        <v>0.1743594210344329</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1092780497379325</v>
+        <v>0.1055635176509644</v>
       </c>
       <c r="O263" t="n">
-        <v>0.145199252956573</v>
+        <v>0.1742874666088338</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03454754572942545</v>
+        <v>0.03506950452804086</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03454754572942545</v>
+        <v>0.03506950452804086</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07038203609614327</v>
+        <v>0.0706042386161328</v>
       </c>
       <c r="M264" t="n">
-        <v>0.146183986389999</v>
+        <v>0.1752400241709704</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1065698800387251</v>
+        <v>0.106210765968183</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1459325825169597</v>
+        <v>0.1751677063391815</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0002650000000000013</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0002650000000000013</v>
+        <v>-0.0001050000000000009</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01980692997125252</v>
+        <v>-0.001259999999999983</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004075469427834926</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02291395481383174</v>
+        <v>0.02455066587196258</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002909686724974049</v>
+        <v>0.0003374636665562686</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.007511310788507392</v>
+        <v>0.007848086982238427</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005007502969117651</v>
+        <v>0.00045516217423545</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007511310788507392</v>
+        <v>0.008734082312217901</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005007502969117651</v>
+        <v>0.000582267787106704</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001111491662136798</v>
+        <v>0.001188525737730437</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001039173830347875</v>
+        <v>0.001124878888520895</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0151812285652731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.0009103243484708999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03687744159561004</v>
+        <v>0.03802423892240475</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001761206273075079</v>
+        <v>0.001761980484890091</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.06018808853266805</v>
+        <v>0.05873635298413704</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001760479460695291</v>
+        <v>0.001761340818063865</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01791582658388813</v>
+        <v>0.02157893907239446</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00265138697291689</v>
+        <v>0.00136548652270635</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01791582658388813</v>
+        <v>0.01815344868792375</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04100803197554517</v>
+        <v>0.03903205113423677</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00264180940961262</v>
+        <v>0.002642970727335136</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05793484891647671</v>
+        <v>0.05996704519215151</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002640719191042937</v>
+        <v>0.002642011227095797</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01979231908302477</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003535182630555853</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01979231908302477</v>
+        <v>0.01925163923198651</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04221034665905343</v>
+        <v>0.03984276907227377</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003522412546150159</v>
+        <v>0.003523960969780182</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06125258064453987</v>
+        <v>0.06279874883736108</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003520958921390583</v>
+        <v>0.003522681636127729</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005007502969117651</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007511310788507392</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02004359198421667</v>
+        <v>0.03138562773942012</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004418978288194817</v>
+        <v>0.00227581087117725</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02004359198421667</v>
+        <v>0.02002022118575522</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04336696392641209</v>
+        <v>0.04135228968934906</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004403015682687699</v>
+        <v>0.004404951212225227</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06729823504663429</v>
+        <v>0.06786181374995992</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004401198651738228</v>
+        <v>0.004403352045159662</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02143306867663326</v>
+        <v>0.03590351268165734</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00530277394583378</v>
+        <v>0.0027309730454127</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02143306867663326</v>
+        <v>0.02174907580226805</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0438014152291675</v>
+        <v>0.04524141594801628</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005283618819225239</v>
+        <v>0.005285941454670273</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06469563616185442</v>
+        <v>0.06926041670319122</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005281438382085874</v>
+        <v>0.005284022454191593</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02220827840144066</v>
+        <v>0.04009441586339473</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006186569603472743</v>
+        <v>0.00318613521964815</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02220827840144066</v>
+        <v>0.02103894623020469</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04778396471780186</v>
+        <v>0.04656213379755758</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006164221955762779</v>
+        <v>0.006166931697115317</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06866365193970231</v>
+        <v>0.06737458406439539</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006161678112433519</v>
+        <v>0.006164692863223526</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0222231508913836</v>
+        <v>0.04380504926466551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007070365261111706</v>
+        <v>0.0036412973938836</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0222231508913836</v>
+        <v>0.0223111224096946</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04586346335405114</v>
+        <v>0.04791482508494277</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007044825092300318</v>
+        <v>0.007047921939560363</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06986838036975551</v>
+        <v>0.06882689128193714</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007041917842781165</v>
+        <v>0.007045363272255458</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02295702357930901</v>
+        <v>0.04688212486550304</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007954160918750669</v>
+        <v>0.00409645956811905</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02295702357930901</v>
+        <v>0.02288932547029579</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04628370382138955</v>
+        <v>0.04677815526005782</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007925428228837858</v>
+        <v>0.007928912182005409</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07165876174950936</v>
+        <v>0.07544813674984102</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007922157573128811</v>
+        <v>0.007926033681287392</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02388697579602492</v>
+        <v>0.04917235464594054</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008837956576389633</v>
+        <v>0.0045516217423545</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02388697579602492</v>
+        <v>0.02412631407188204</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04777856385853035</v>
+        <v>0.05030104067533733</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008806031365375397</v>
+        <v>0.008809902424450454</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07612482402408449</v>
+        <v>0.07644010209368018</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008802397303476456</v>
+        <v>0.008806704090319323</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02422311900684979</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009721752234028597</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02422311900684979</v>
+        <v>0.02395353669463642</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04855925781673689</v>
+        <v>0.05202758651304745</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009686634501912938</v>
+        <v>0.009690892666895498</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08011608258951258</v>
+        <v>0.07773311103376501</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009682637033824101</v>
+        <v>0.009687374499351255</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02467795381172899</v>
+        <v>0.05122247676604967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01060554789166756</v>
+        <v>0.0054619460908254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02467795381172899</v>
+        <v>0.02525361625542587</v>
       </c>
       <c r="K77" t="n">
         <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05042262824405025</v>
+        <v>0.05259187160526765</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01056723763845048</v>
+        <v>0.01057188290934055</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07764998931237238</v>
+        <v>0.081124244341157</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01056287676417175</v>
+        <v>0.01056804490838319</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02534348624420801</v>
+        <v>0.05190267352700431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01148934354930652</v>
+        <v>0.00591710826506085</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02534348624420801</v>
+        <v>0.0249282045730078</v>
       </c>
       <c r="K78" t="n">
         <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05094629333130496</v>
+        <v>0.050438409252515</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01144784077498802</v>
+        <v>0.01145287315178559</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07565916665848127</v>
+        <v>0.08135110514513244</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01144311649451939</v>
+        <v>0.01144871531741512</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02560215048818033</v>
+        <v>0.05257099489715768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01237313920694549</v>
+        <v>0.0063722704392963</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02560215048818033</v>
+        <v>0.02439390301441077</v>
       </c>
       <c r="K79" t="n">
         <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05398145333924462</v>
+        <v>0.05339819778130134</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01232844391152556</v>
+        <v>0.01233386339423063</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07904553559751287</v>
+        <v>0.08252071085820489</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01232335622486704</v>
+        <v>0.01232938572644705</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0256556292816514</v>
+        <v>0.05322753472188137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01325693486458445</v>
+        <v>0.00682743261353175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0256556292816514</v>
+        <v>0.02510957010858764</v>
       </c>
       <c r="K80" t="n">
         <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05244398481925608</v>
+        <v>0.05185968954607384</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0132090470480631</v>
+        <v>0.01321485363667568</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07766294884360747</v>
+        <v>0.08086514788564825</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01320359595521468</v>
+        <v>0.01321005613547898</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02524821239780753</v>
+        <v>0.05387238684654701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01414073052222341</v>
+        <v>0.007282594787767199</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02524821239780753</v>
+        <v>0.02564093439165237</v>
       </c>
       <c r="K81" t="n">
         <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05549257945745892</v>
+        <v>0.05258754070369759</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01408965018460064</v>
+        <v>0.01409584387912073</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08180861704233239</v>
+        <v>0.08400782991276079</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01408383568556233</v>
+        <v>0.01409072654451092</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02657409832362388</v>
+        <v>0.05450564511652622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01502452617986238</v>
+        <v>0.00773775696200265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02657409832362388</v>
+        <v>0.026346000532577</v>
       </c>
       <c r="K82" t="n">
         <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05520414252085071</v>
+        <v>0.05614106923629728</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01497025332113817</v>
+        <v>0.01497683412156577</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08025830926200839</v>
+        <v>0.08234581711421446</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01496407541590998</v>
+        <v>0.01497139695354285</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02662756212727051</v>
+        <v>0.05512740337719062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01590832183750134</v>
+        <v>0.008192919136238101</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02662756212727051</v>
+        <v>0.02566550632887464</v>
       </c>
       <c r="K83" t="n">
         <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05231642579549795</v>
+        <v>0.05278882655539638</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01585085645767572</v>
+        <v>0.01585782436401082</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08092534043672761</v>
+        <v>0.08396532540255447</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01584431514625762</v>
+        <v>0.01585206736257478</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02636683883174068</v>
+        <v>0.05573775547391183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0167921174951403</v>
+        <v>0.00864808131047355</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02636683883174068</v>
+        <v>0.02602398142039292</v>
       </c>
       <c r="K84" t="n">
         <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0528212863549023</v>
+        <v>0.05570580554294854</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01673145959421326</v>
+        <v>0.01673881460645586</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0859390083627633</v>
+        <v>0.08206123711972957</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01672455487660527</v>
+        <v>0.01673273777160671</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02678438945920485</v>
+        <v>0.05633679525206146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01767591315277927</v>
+        <v>0.009103243484709001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02678438945920485</v>
+        <v>0.02585872646151763</v>
       </c>
       <c r="K85" t="n">
         <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05373867430583742</v>
+        <v>0.05717459165201544</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01761206273075079</v>
+        <v>0.01761980484890091</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08076856989168824</v>
+        <v>0.08127307536891493</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01760479460695291</v>
+        <v>0.01761340818063865</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02741847101776235</v>
+        <v>0.05692461655701116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855970881041823</v>
+        <v>0.00955840565894445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02741847101776235</v>
+        <v>0.02622379667379206</v>
       </c>
       <c r="K86" t="n">
         <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05488294155764153</v>
+        <v>0.05406720737489809</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01849266586728834</v>
+        <v>0.01850079509134596</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08769300960552978</v>
+        <v>0.08603577802772239</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01848503433730056</v>
+        <v>0.01849407858967058</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02755935423241243</v>
+        <v>0.05750131323413252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01944350446805719</v>
+        <v>0.0100135678331799</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02755935423241243</v>
+        <v>0.02650214505164271</v>
       </c>
       <c r="K87" t="n">
         <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05617640014019742</v>
+        <v>0.05446495832100906</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01937326900382588</v>
+        <v>0.019381785333791</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08280591379010205</v>
+        <v>0.0804188065311553</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0193652740676482</v>
+        <v>0.01937474899870251</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02675235221123842</v>
+        <v>0.05806697912879716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02032730012569616</v>
+        <v>0.01046873000741535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02675235221123842</v>
+        <v>0.02667403674331401</v>
       </c>
       <c r="K88" t="n">
         <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05439325738148035</v>
+        <v>0.05357687480258208</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02025387214036341</v>
+        <v>0.02026277557623604</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08253168340339856</v>
+        <v>0.08372816770406594</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02024551379799585</v>
+        <v>0.02025541940773444</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4780 +10191,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02638190994994372</v>
+        <v>0.05862170808637672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02121109578333512</v>
+        <v>0.0109238921816508</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02638190994994372</v>
+        <v>0.02715343746149537</v>
       </c>
       <c r="K89" t="n">
         <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05678622324473528</v>
+        <v>0.05446066961068349</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02113447527690096</v>
+        <v>0.02114376581868109</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08747069067259533</v>
+        <v>0.08605202983033289</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02112575352834349</v>
+        <v>0.02113608981676637</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02698565122603004</v>
+        <v>0.05916559395224281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02209489144097408</v>
+        <v>0.01137905435588625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02698565122603004</v>
+        <v>0.02760644123612731</v>
       </c>
       <c r="K90" t="n">
         <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05862680907626125</v>
+        <v>0.05761095688870199</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0220150784134385</v>
+        <v>0.02202475606112613</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08431906881022866</v>
+        <v>0.08327505966173365</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02200599325869114</v>
+        <v>0.02201676022579831</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02826620171860016</v>
+        <v>0.05969873057176707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02297868709861305</v>
+        <v>0.0118342165301217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02826620171860016</v>
+        <v>0.02707217850648899</v>
       </c>
       <c r="K91" t="n">
         <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05487594118761718</v>
+        <v>0.05703086896477561</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02289568154997603</v>
+        <v>0.02290574630357118</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0829267074572631</v>
+        <v>0.08423367404171483</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02288623298903879</v>
+        <v>0.02289743063483024</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02735566776400887</v>
+        <v>0.0602212117903211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02386248275625201</v>
+        <v>0.01228937870435715</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02735566776400887</v>
+        <v>0.02744223554878791</v>
       </c>
       <c r="K92" t="n">
         <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05910537358518095</v>
+        <v>0.05557697514510465</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02377628468651357</v>
+        <v>0.02378673654601622</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08690286546338216</v>
+        <v>0.08447856652449109</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02376647271938643</v>
+        <v>0.02377810104386217</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02803663133377042</v>
+        <v>0.06073313145327652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02474627841389097</v>
+        <v>0.0127445408785926</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02803663133377042</v>
+        <v>0.02718528972624888</v>
       </c>
       <c r="K93" t="n">
         <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05768894556323259</v>
+        <v>0.05561642150061666</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02465688782305112</v>
+        <v>0.02466772678846127</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08406470121551768</v>
+        <v>0.08969583357844896</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02464671244973408</v>
+        <v>0.0246587714528941</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02836612199068023</v>
+        <v>0.06123458340600496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02563007407152994</v>
+        <v>0.01319970305282805</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02836612199068023</v>
+        <v>0.0281944950734133</v>
       </c>
       <c r="K94" t="n">
         <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05875058503628988</v>
+        <v>0.05736741961991296</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02553749095958865</v>
+        <v>0.02554871703090632</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08399519217686885</v>
+        <v>0.08760038865844288</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02552695218008172</v>
+        <v>0.02553944186192604</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02827960831585952</v>
+        <v>0.06172566149387802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0265138697291689</v>
+        <v>0.0136548652270635</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02827960831585952</v>
+        <v>0.0280029420362983</v>
       </c>
       <c r="K95" t="n">
         <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05682256268114422</v>
+        <v>0.05779016697962272</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02641809409612619</v>
+        <v>0.02642970727335136</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08981878456637987</v>
+        <v>0.08993061341276132</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02640719191042937</v>
+        <v>0.02642011227095797</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02853279564519144</v>
+        <v>0.06220645956226735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02739766538680786</v>
+        <v>0.01411002740129895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02853279564519144</v>
+        <v>0.02829016890959238</v>
       </c>
       <c r="K96" t="n">
         <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05855550147137364</v>
+        <v>0.05586549541735342</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02729869723266373</v>
+        <v>0.02731069751579641</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09003357874513718</v>
+        <v>0.08509304270861523</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02728743164077701</v>
+        <v>0.0273007826799899</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02852162111251966</v>
+        <v>0.06267707145654454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02828146104444683</v>
+        <v>0.0145651895755344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02852162111251966</v>
+        <v>0.02777101348018275</v>
       </c>
       <c r="K97" t="n">
         <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05903034553813521</v>
+        <v>0.0583452760724622</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02817930036920127</v>
+        <v>0.02819168775824145</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08813430027547337</v>
+        <v>0.08671084916117316</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02816767137112466</v>
+        <v>0.02818145308902183</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02790117273601854</v>
+        <v>0.06313759102208125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02916525670208579</v>
+        <v>0.01502035174976985</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02790117273601854</v>
+        <v>0.02847628589867787</v>
       </c>
       <c r="K98" t="n">
         <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05674971409756782</v>
+        <v>0.05706755446220316</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02905990350573881</v>
+        <v>0.0290726780006865</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08915421783421651</v>
+        <v>0.08916032490986753</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02904791110147231</v>
+        <v>0.02906212349805376</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02853787372296203</v>
+        <v>0.06358811210424906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03004905235972475</v>
+        <v>0.0154755139240053</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02853787372296203</v>
+        <v>0.02900954628919382</v>
       </c>
       <c r="K99" t="n">
         <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05724761840930773</v>
+        <v>0.06002478960179222</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02994050664227635</v>
+        <v>0.02995366824313155</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08697091180602795</v>
+        <v>0.08936474927922761</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02992815083181995</v>
+        <v>0.0299427939070857</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02763904055639514</v>
+        <v>0.06402872854841959</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03093284801736372</v>
+        <v>0.01593067609824075</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02763904055639514</v>
+        <v>0.02848219718687603</v>
       </c>
       <c r="K100" t="n">
         <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06061121298700328</v>
+        <v>0.05694456265465406</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03082110977881389</v>
+        <v>0.03083465848557659</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08756640433060242</v>
+        <v>0.09107200962606049</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0308083905621676</v>
+        <v>0.03082346431611763</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02940870821423915</v>
+        <v>0.06445953419996449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03181664367500268</v>
+        <v>0.0163858382724762</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02940870821423915</v>
+        <v>0.02884414933336972</v>
       </c>
       <c r="K101" t="n">
         <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05717682598793355</v>
+        <v>0.05857965570556423</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03170171291535143</v>
+        <v>0.03171564872802164</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09263312448639144</v>
+        <v>0.08968509665796276</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03168863029251524</v>
+        <v>0.03170413472514957</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02945798805843899</v>
+        <v>0.06488062290425539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03270043933264164</v>
+        <v>0.01684100044671165</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02945798805843899</v>
+        <v>0.02907658370653295</v>
       </c>
       <c r="K102" t="n">
         <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05991661066833467</v>
+        <v>0.05737974094740206</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03258231605188897</v>
+        <v>0.03259663897046668</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09007946554425328</v>
+        <v>0.08713878014873605</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03256887002286288</v>
+        <v>0.03258480513418149</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02877377372420739</v>
+        <v>0.06529208850666386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03358423499028061</v>
+        <v>0.0172961626209471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02877377372420739</v>
+        <v>0.02970859723159622</v>
       </c>
       <c r="K103" t="n">
         <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05795468582117907</v>
+        <v>0.05792174722195648</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03346291918842651</v>
+        <v>0.03347762921291172</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0916591368940321</v>
+        <v>0.08856537878303206</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03344910975321053</v>
+        <v>0.03346547554321343</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02871669356615392</v>
+        <v>0.06569402485256158</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03446803064791957</v>
+        <v>0.01775132479518255</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02871669356615392</v>
+        <v>0.02854549969196082</v>
       </c>
       <c r="K104" t="n">
         <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06077283739545764</v>
+        <v>0.05815493180883433</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03434352232496405</v>
+        <v>0.03435861945535677</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0937759925888404</v>
+        <v>0.08854796913053381</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03432934948355817</v>
+        <v>0.03434614595224536</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02823472437317241</v>
+        <v>0.06608652578732011</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03535182630555853</v>
+        <v>0.018206486969418</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02823472437317241</v>
+        <v>0.02960179666314998</v>
       </c>
       <c r="K105" t="n">
         <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06126117414408833</v>
+        <v>0.05843647590241624</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03522412546150159</v>
+        <v>0.03523960969780181</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09421789658910956</v>
+        <v>0.08914572880180555</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03520958921390582</v>
+        <v>0.03522681636127729</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02925408795319287</v>
+        <v>0.06646968515631112</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0362356219631975</v>
+        <v>0.01866164914365345</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02925408795319287</v>
+        <v>0.02909247510790582</v>
       </c>
       <c r="K106" t="n">
         <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05910699110359463</v>
+        <v>0.06079462788940515</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03610472859803913</v>
+        <v>0.03612059994024686</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09413848626838012</v>
+        <v>0.09397716051031563</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03608982894425347</v>
+        <v>0.03610748677030923</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02884247965942129</v>
+        <v>0.0668435968049062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03711941762083646</v>
+        <v>0.0191168113178889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02884247965942129</v>
+        <v>0.02893770962982019</v>
       </c>
       <c r="K107" t="n">
         <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05960750810237525</v>
+        <v>0.05966486459138015</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03698533173457667</v>
+        <v>0.03700159018269191</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09269539177187464</v>
+        <v>0.09340556401877881</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03697006867460112</v>
+        <v>0.03698815717934115</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02919102821494701</v>
+        <v>0.06720835457847699</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03800321327847542</v>
+        <v>0.01957197349212435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02919102821494701</v>
+        <v>0.02933587700419739</v>
       </c>
       <c r="K108" t="n">
         <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0591130677986956</v>
+        <v>0.06149480652165495</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03786593487111421</v>
+        <v>0.03788258042513695</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09280846094974721</v>
+        <v>0.09025898978604197</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03785030840494876</v>
+        <v>0.03786882758837309</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02996912476641556</v>
+        <v>0.06756405232239508</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03888700893611439</v>
+        <v>0.0200271356663598</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02996912476641556</v>
+        <v>0.02898773784534249</v>
       </c>
       <c r="K109" t="n">
         <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05983522737502678</v>
+        <v>0.06028894064087942</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03874653800765175</v>
+        <v>0.03876357066758199</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09240258731581263</v>
+        <v>0.09234819611672829</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0387305481352964</v>
+        <v>0.03874949799740502</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0297266525636662</v>
+        <v>0.06791078388203213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03977080459375335</v>
+        <v>0.02048229784059525</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0297266525636662</v>
+        <v>0.02940483675251225</v>
       </c>
       <c r="K110" t="n">
         <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06210063662826992</v>
+        <v>0.0614417878276538</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03962714114418929</v>
+        <v>0.03964456091002704</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09377638140929095</v>
+        <v>0.09022858095674541</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03961078786564405</v>
+        <v>0.03963016840643695</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02908551531217289</v>
+        <v>0.06824864310275973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04065460025139232</v>
+        <v>0.0209374600148307</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02908551531217289</v>
+        <v>0.02939618898816754</v>
       </c>
       <c r="K111" t="n">
         <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06171049994120442</v>
+        <v>0.06144169485528103</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04050774428072683</v>
+        <v>0.04052555115247208</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0899392682513373</v>
+        <v>0.09520714902721034</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0404910275959917</v>
+        <v>0.04051083881546889</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0290320520917273</v>
+        <v>0.06857772382994952</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04153839590903128</v>
+        <v>0.02139262218906615</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0290320520917273</v>
+        <v>0.02986921737834002</v>
       </c>
       <c r="K112" t="n">
         <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05984938899439321</v>
+        <v>0.06114480975048511</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04138834741726437</v>
+        <v>0.04140654139491713</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09121869223527224</v>
+        <v>0.09426694134777613</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04137126732633935</v>
+        <v>0.04139150922450082</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02906801153645529</v>
+        <v>0.06889811990897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04242219156667024</v>
+        <v>0.0218477843633016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02906801153645529</v>
+        <v>0.03058842339549057</v>
       </c>
       <c r="K113" t="n">
         <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06046809777737833</v>
+        <v>0.06072821444690171</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04226895055380191</v>
+        <v>0.04228753163736218</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09088753099583735</v>
+        <v>0.09633948870856979</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04225150705668699</v>
+        <v>0.04227217963353275</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02985314301916309</v>
+        <v>0.06920992518520212</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0433059872243092</v>
+        <v>0.02230294653753705</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02985314301916309</v>
+        <v>0.0296333450823648</v>
       </c>
       <c r="K114" t="n">
         <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06051298346734249</v>
+        <v>0.06001156726287787</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04314955369033945</v>
+        <v>0.04316852187980722</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09370198423142717</v>
+        <v>0.09375867985259878</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04313174678703463</v>
+        <v>0.04315285004256468</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02917931996275153</v>
+        <v>0.06951323350400819</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04418978288194816</v>
+        <v>0.0227581087117725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02917931996275153</v>
+        <v>0.02978271137919722</v>
       </c>
       <c r="K115" t="n">
         <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06285061965811523</v>
+        <v>0.06272775441590767</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04403015682687699</v>
+        <v>0.04404951212225227</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09406082426148438</v>
+        <v>0.09367747576778795</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04401198651738228</v>
+        <v>0.04403352045159661</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03058323215602876</v>
+        <v>0.06980813871076291</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04507357853958713</v>
+        <v>0.02321327088600795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03058323215602876</v>
+        <v>0.02989526099188861</v>
       </c>
       <c r="K116" t="n">
         <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06089432361298888</v>
+        <v>0.06090110207258057</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04491075996341452</v>
+        <v>0.04493050236469732</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09523515335562688</v>
+        <v>0.09367373040752641</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04489222624772993</v>
+        <v>0.04491419086062855</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03032297429544938</v>
+        <v>0.07009473465083792</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04595737419722609</v>
+        <v>0.0236684330602434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03032297429544938</v>
+        <v>0.02959050993091827</v>
       </c>
       <c r="K117" t="n">
         <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06318347916668163</v>
+        <v>0.06228427407915543</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04579136309995207</v>
+        <v>0.04581149260714237</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09270539805661598</v>
+        <v>0.09544005893804658</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04577246597807758</v>
+        <v>0.04579486126966048</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02924854319480123</v>
+        <v>0.07037311516960483</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04684116985486506</v>
+        <v>0.02412359523447885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02924854319480123</v>
+        <v>0.02975300513927505</v>
       </c>
       <c r="K118" t="n">
         <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0611091018940674</v>
+        <v>0.06018553665132678</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04667196623648961</v>
+        <v>0.0466924828495874</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09267641344644661</v>
+        <v>0.09165614023361424</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04665270570842522</v>
+        <v>0.04667553167869241</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03030455917557248</v>
+        <v>0.07064337411243526</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04772496551250402</v>
+        <v>0.0245787574087143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03030455917557248</v>
+        <v>0.0295904635833399</v>
       </c>
       <c r="K119" t="n">
         <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06144848997788799</v>
+        <v>0.06294483125409436</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04755256937302715</v>
+        <v>0.04757347309203245</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09116653622991772</v>
+        <v>0.09576753685146683</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04753294543877287</v>
+        <v>0.04755620208772435</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02959638173591983</v>
+        <v>0.07090560532470085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04860876117014298</v>
+        <v>0.02503391958294975</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02959638173591983</v>
+        <v>0.03064760116546585</v>
       </c>
       <c r="K120" t="n">
         <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06328084088298885</v>
+        <v>0.05993786461608502</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04843317250956469</v>
+        <v>0.0484544633344775</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09118513802912653</v>
+        <v>0.09322560457146029</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04841318516912051</v>
+        <v>0.04843687249675627</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02983088901814968</v>
+        <v>0.0711599026517732</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04949255682778195</v>
+        <v>0.0254890817571852</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02983088901814968</v>
+        <v>0.03021999625453506</v>
       </c>
       <c r="K121" t="n">
         <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06321350768248207</v>
+        <v>0.06284172771847962</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04931377564610223</v>
+        <v>0.04933545357692254</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09744725417813815</v>
+        <v>0.09452057969535799</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04929342489946816</v>
+        <v>0.04931754290578821</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02969974650037613</v>
+        <v>0.07140635993902396</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05037635248542091</v>
+        <v>0.02594424393142065</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02969974650037613</v>
+        <v>0.03079632763017788</v>
       </c>
       <c r="K122" t="n">
         <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06041272799671352</v>
+        <v>0.06296091898907047</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05019437878263976</v>
+        <v>0.05021644381936759</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09378545060274041</v>
+        <v>0.09712812742880261</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0501736646298158</v>
+        <v>0.05019821331482014</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02982031772992445</v>
+        <v>0.07164507103182467</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05126014814305987</v>
+        <v>0.0263994061056561</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02982031772992445</v>
+        <v>0.02993400096163212</v>
       </c>
       <c r="K123" t="n">
         <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06279324418868287</v>
+        <v>0.06355340603416545</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05107498191917731</v>
+        <v>0.05109743406181264</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09781320810094729</v>
+        <v>0.09704126313814249</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05105390436016344</v>
+        <v>0.05107888372385207</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03092888924480697</v>
+        <v>0.07187612977554707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05214394380069883</v>
+        <v>0.02685456827989155</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03092888924480697</v>
+        <v>0.0309093834652613</v>
       </c>
       <c r="K124" t="n">
         <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06367645169260908</v>
+        <v>0.062158551410299</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05195558505571485</v>
+        <v>0.05197842430425768</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09429524189824928</v>
+        <v>0.09269322403606672</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05193414409051109</v>
+        <v>0.05195955413288401</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03068446753664476</v>
+        <v>0.0720996300155627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0530277394583378</v>
+        <v>0.027309730454127</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03068446753664476</v>
+        <v>0.0295922163484001</v>
       </c>
       <c r="K125" t="n">
         <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06148726726792134</v>
+        <v>0.06215280721034511</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05283618819225239</v>
+        <v>0.05285941454670272</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09454606567183194</v>
+        <v>0.09762401396256709</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05281438382085873</v>
+        <v>0.05284022454191593</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02971220296560838</v>
+        <v>0.07231566559724317</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05391153511597677</v>
+        <v>0.02776489262836245</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02971220296560838</v>
+        <v>0.03005406798669073</v>
       </c>
       <c r="K126" t="n">
         <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06229323442969009</v>
+        <v>0.06217854417451402</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05371679132878993</v>
+        <v>0.05374040478914777</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0922084782690189</v>
+        <v>0.09236776390522228</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05369462355120638</v>
+        <v>0.05372089495094787</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03005432946378257</v>
+        <v>0.07252433036596014</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05479533077361572</v>
+        <v>0.0282200548025979</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03005432946378257</v>
+        <v>0.03116463240515235</v>
       </c>
       <c r="K127" t="n">
         <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06307526487844883</v>
+        <v>0.06450175341700948</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05459739446532746</v>
+        <v>0.05462139503159281</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09734237614149671</v>
+        <v>0.09414978931539647</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05457486328155402</v>
+        <v>0.05460156535997981</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03057346671493311</v>
+        <v>0.07272571816708523</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05567912643125469</v>
+        <v>0.02867521697683335</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03057346671493311</v>
+        <v>0.03073497139134834</v>
       </c>
       <c r="K128" t="n">
         <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06511495786937346</v>
+        <v>0.0610286483131138</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05547799760186501</v>
+        <v>0.05550238527403786</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09385444839399709</v>
+        <v>0.0976485788183073</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05545510301190167</v>
+        <v>0.05548223576901173</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02984188668004459</v>
+        <v>0.07291992284599007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05656292208889365</v>
+        <v>0.0291303791510688</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02984188668004459</v>
+        <v>0.03077732808633338</v>
       </c>
       <c r="K129" t="n">
         <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.064140734975277</v>
+        <v>0.06214537324245054</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05635860073840254</v>
+        <v>0.0563833755164829</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09799340431477516</v>
+        <v>0.09781845921809806</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05633534274224932</v>
+        <v>0.05636290617804367</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03067789116853675</v>
+        <v>0.07310703824804622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05744671774653261</v>
+        <v>0.02958554132530425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03067789116853675</v>
+        <v>0.03116833735410832</v>
       </c>
       <c r="K130" t="n">
         <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0612821194760351</v>
+        <v>0.06241391810881208</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05723920387494008</v>
+        <v>0.05726436575892795</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0969269828252074</v>
+        <v>0.09370262890751058</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05721558247259697</v>
+        <v>0.05724357658707559</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03144961224693447</v>
+        <v>0.07328715821862536</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05833051340417158</v>
+        <v>0.0300407034995397</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03144961224693447</v>
+        <v>0.03097774198091847</v>
       </c>
       <c r="K131" t="n">
         <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0616209562739308</v>
+        <v>0.06394487245197289</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05811980701147763</v>
+        <v>0.05814535600137299</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0945477819278977</v>
+        <v>0.09633535315311975</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05809582220294461</v>
+        <v>0.05812424699610753</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03120770603811997</v>
+        <v>0.07346037660309908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05921430906181054</v>
+        <v>0.03049586567377515</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03120770603811997</v>
+        <v>0.0314236578074223</v>
       </c>
       <c r="K132" t="n">
         <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0621962024708746</v>
+        <v>0.06462805002944383</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05900041014801517</v>
+        <v>0.05902634624381804</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09903266764367114</v>
+        <v>0.09599284568977817</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05897606193329226</v>
+        <v>0.05900491740513947</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03050520774622792</v>
+        <v>0.07362678724683903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06009810471944951</v>
+        <v>0.0309510278480106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03050520774622792</v>
+        <v>0.03085113766646527</v>
       </c>
       <c r="K133" t="n">
         <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06481936410113256</v>
+        <v>0.06317702322070018</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0598810132845527</v>
+        <v>0.05990733648626309</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09543755497938844</v>
+        <v>0.09519565097018856</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05985630166363991</v>
+        <v>0.05988558781417139</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03055054129267996</v>
+        <v>0.07378648399521678</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06098190037708846</v>
+        <v>0.03140619002224605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03055054129267996</v>
+        <v>0.03062905563824649</v>
       </c>
       <c r="K134" t="n">
         <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06418136806815405</v>
+        <v>0.06285246893706334</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06076161642109025</v>
+        <v>0.06078832672870813</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09583386138714889</v>
+        <v>0.09956839897812086</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06073654139398754</v>
+        <v>0.06076625822320333</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03148095946238329</v>
+        <v>0.07393956069360402</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06186569603472743</v>
+        <v>0.0318613521964815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03148095946238329</v>
+        <v>0.03026586689491387</v>
       </c>
       <c r="K135" t="n">
         <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06538583220290517</v>
+        <v>0.06502822048570689</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06164221955762778</v>
+        <v>0.06166931697115318</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09470863563322413</v>
+        <v>0.09637779780779604</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06161678112433519</v>
+        <v>0.06164692863223525</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03032153689844862</v>
+        <v>0.07408611118737231</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06274949169236639</v>
+        <v>0.03231651437071695</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03032153689844862</v>
+        <v>0.03169502880730324</v>
       </c>
       <c r="K136" t="n">
         <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06583302859895268</v>
+        <v>0.06579685509367639</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06252282269416531</v>
+        <v>0.06255030721359822</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09426362277829559</v>
+        <v>0.09442498874699828</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06249702085468284</v>
+        <v>0.0625275990412672</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03054682295869779</v>
+        <v>0.07422622932189331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06363328735000535</v>
+        <v>0.0327716765449524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03054682295869779</v>
+        <v>0.03100324571292974</v>
       </c>
       <c r="K137" t="n">
         <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06449147956436513</v>
+        <v>0.06567889713548944</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06340342583070287</v>
+        <v>0.06343129745604327</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09386057168195994</v>
+        <v>0.09976364876184157</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06337726058503049</v>
+        <v>0.06340826945029913</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03128563441149239</v>
+        <v>0.07436000894253864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06451708300764432</v>
+        <v>0.03322683871918785</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03128563441149239</v>
+        <v>0.030464677010898</v>
       </c>
       <c r="K138" t="n">
         <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06441428104712565</v>
+        <v>0.0632331273838832</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06428402896724041</v>
+        <v>0.06431228769848832</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09824808221521425</v>
+        <v>0.09408390122031401</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06425750031537814</v>
+        <v>0.06428893985933105</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03142381417965252</v>
+        <v>0.07448754389467985</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06540087866528328</v>
+        <v>0.0336820008934233</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03142381417965252</v>
+        <v>0.03198815403294598</v>
       </c>
       <c r="K139" t="n">
         <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06263243176964672</v>
+        <v>0.06551181115484644</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06516463210377794</v>
+        <v>0.06519327794093335</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09588026305045599</v>
+        <v>0.1004497591786516</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06513774004572577</v>
+        <v>0.06516961026836299</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03067416408572321</v>
+        <v>0.07460892802368863</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06628467432292225</v>
+        <v>0.03413716306765874</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03067416408572321</v>
+        <v>0.03114484871132812</v>
       </c>
       <c r="K140" t="n">
         <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06379317262307946</v>
+        <v>0.06415279539958885</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06604523524031548</v>
+        <v>0.0660742681833784</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09473883897620855</v>
+        <v>0.09657270810881285</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06601797977607342</v>
+        <v>0.06605028067739492</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03139348842509852</v>
+        <v>0.07472425517493661</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06716846998056121</v>
+        <v>0.0345923252418942</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03139348842509852</v>
+        <v>0.03119348842509852</v>
       </c>
       <c r="K141" t="n">
         <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06555574914388906</v>
+        <v>0.06475262959138159</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06692583837685302</v>
+        <v>0.06695525842582345</v>
       </c>
       <c r="N141" t="n">
-        <v>0.100463855312346</v>
+        <v>0.09890832604580752</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06689821950642107</v>
+        <v>0.06693095108642685</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03160905159914509</v>
+        <v>0.07483361919379539</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06805226563820017</v>
+        <v>0.03504748741612965</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03160905159914509</v>
+        <v>0.03110079212278283</v>
       </c>
       <c r="K142" t="n">
         <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06501969590529807</v>
+        <v>0.06654005426627993</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06780644151339056</v>
+        <v>0.0678362486682685</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09875418523132989</v>
+        <v>0.1015456038588212</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06777845923676871</v>
+        <v>0.06781162149545879</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03163241863574072</v>
+        <v>0.07493711392563655</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06893606129583914</v>
+        <v>0.0355026495903651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03163241863574072</v>
+        <v>0.03125070450297222</v>
       </c>
       <c r="K143" t="n">
         <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06502878652716876</v>
+        <v>0.06553907153820071</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0686870446499281</v>
+        <v>0.06871723891071353</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09645450950232753</v>
+        <v>0.09760953840213477</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06865869896711635</v>
+        <v>0.06869229190449072</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03126524657733952</v>
+        <v>0.07503483321583179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0698198569534781</v>
+        <v>0.03595781176460055</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03126524657733952</v>
+        <v>0.03123627379033235</v>
       </c>
       <c r="K144" t="n">
         <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06499838679217226</v>
+        <v>0.06583241027142317</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06956764778646564</v>
+        <v>0.06959822915315859</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09828847033796356</v>
+        <v>0.09593064796871742</v>
       </c>
       <c r="O144" t="n">
-        <v>0.069538938697464</v>
+        <v>0.06957296231352265</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0312182970595383</v>
+        <v>0.07512687090975265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07070365261111707</v>
+        <v>0.036412973938836</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0312182970595383</v>
+        <v>0.03231491906596116</v>
       </c>
       <c r="K145" t="n">
         <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06693196619358804</v>
+        <v>0.06741750000021801</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07044825092300318</v>
+        <v>0.07047921939560363</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1029873908211122</v>
+        <v>0.1020713649254766</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07041917842781165</v>
+        <v>0.07045363272255459</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03227827399223221</v>
+        <v>0.0752133208527708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07158744826875603</v>
+        <v>0.03686813611307145</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03227827399223221</v>
+        <v>0.03143816283513477</v>
       </c>
       <c r="K146" t="n">
         <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0647151251529326</v>
+        <v>0.06584307344441659</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07132885405954073</v>
+        <v>0.07136020963804868</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09746776988291822</v>
+        <v>0.1002097831329178</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07129941815815929</v>
+        <v>0.07133430313158652</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03227057961517479</v>
+        <v>0.07529427689025785</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07247124392639499</v>
+        <v>0.0373232982873069</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03227057961517479</v>
+        <v>0.03145753514152265</v>
       </c>
       <c r="K147" t="n">
         <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06537281726750185</v>
+        <v>0.06614047455329186</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07220945719607826</v>
+        <v>0.07224119988049373</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09836448474380655</v>
+        <v>0.1014080149313658</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07217965788850694</v>
+        <v>0.07221497354061845</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03122055818947402</v>
+        <v>0.07536983286758542</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07335503958403396</v>
+        <v>0.03777846046154235</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03122055818947402</v>
+        <v>0.03160447205400298</v>
       </c>
       <c r="K148" t="n">
         <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06402904930533496</v>
+        <v>0.06548151442233127</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07309006033261579</v>
+        <v>0.07312219012293876</v>
       </c>
       <c r="N148" t="n">
-        <v>0.102311374594398</v>
+        <v>0.09795489724660811</v>
       </c>
       <c r="O148" t="n">
-        <v>0.07305989761885459</v>
+        <v>0.07309564394965037</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0325356208487009</v>
+        <v>0.07544008263012511</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07423883524167292</v>
+        <v>0.0382336226357778</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0325356208487009</v>
+        <v>0.03165217819472982</v>
       </c>
       <c r="K149" t="n">
         <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06399904636116108</v>
+        <v>0.0665357656630198</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07397066346915335</v>
+        <v>0.07400318036538382</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1025129227171815</v>
+        <v>0.09963537600570216</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07394013734920224</v>
+        <v>0.07397631435868231</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03278707627434541</v>
+        <v>0.07550512002324859</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07512263089931188</v>
+        <v>0.03868878481001325</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03278707627434541</v>
+        <v>0.03265135264357717</v>
       </c>
       <c r="K150" t="n">
         <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06616319630838763</v>
+        <v>0.0652326999592453</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07485126660569089</v>
+        <v>0.07488417060782886</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1024225874515721</v>
+        <v>0.09795135159483065</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07482037707954987</v>
+        <v>0.07485698476771425</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03154478346431701</v>
+        <v>0.07556503889232744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07600642655695085</v>
+        <v>0.0391439469842487</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03154478346431701</v>
+        <v>0.03229963087309418</v>
       </c>
       <c r="K151" t="n">
         <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06551234701511166</v>
+        <v>0.06834153683732197</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07573186974222841</v>
+        <v>0.0757651608502739</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09852274573460745</v>
+        <v>0.1030112412334735</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07570061680989752</v>
+        <v>0.07573765517674617</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03246628896460077</v>
+        <v>0.07561993308273328</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0768902222145898</v>
+        <v>0.03959910915848415</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03246628896460077</v>
+        <v>0.03229484741874687</v>
       </c>
       <c r="K152" t="n">
         <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06452145066314444</v>
+        <v>0.06809368220132461</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07661247287876596</v>
+        <v>0.07664615109271895</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1007718125947411</v>
+        <v>0.09769943396393566</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07658085654024516</v>
+        <v>0.07661832558577811</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03156356300498037</v>
+        <v>0.07566989643983775</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07777401787222878</v>
+        <v>0.0400542713327196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03156356300498037</v>
+        <v>0.03269002086023741</v>
       </c>
       <c r="K153" t="n">
         <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06789335811728267</v>
+        <v>0.06399108068981343</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0774930760153035</v>
+        <v>0.07752714133516399</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1008013522480072</v>
+        <v>0.09878575374911486</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07746109627059281</v>
+        <v>0.07749899599481004</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03254968460390988</v>
+        <v>0.07571502280901245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07865781352986773</v>
+        <v>0.04050943350695504</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03254968460390988</v>
+        <v>0.03185069921357907</v>
       </c>
       <c r="K154" t="n">
         <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06697023089310147</v>
+        <v>0.06577725205954085</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07837367915184104</v>
+        <v>0.07840813157760904</v>
       </c>
       <c r="N154" t="n">
-        <v>0.10013008740856</v>
+        <v>0.09822968974722468</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07834133600094045</v>
+        <v>0.07837966640384197</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03236011357277892</v>
+        <v>0.07575540603562901</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0795416091875067</v>
+        <v>0.0409645956811905</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03236011357277892</v>
+        <v>0.03219417272924587</v>
       </c>
       <c r="K155" t="n">
         <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06568448193023885</v>
+        <v>0.06492468776448243</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07925428228837858</v>
+        <v>0.07928912182005408</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1024100582585924</v>
+        <v>0.09781439511312162</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0792215757312881</v>
+        <v>0.07926033681287391</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03187872810495344</v>
+        <v>0.07579113996505907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08042540484514565</v>
+        <v>0.04141975785542595</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03187872810495344</v>
+        <v>0.03191069909294815</v>
       </c>
       <c r="K156" t="n">
         <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0653330439614403</v>
+        <v>0.06765901581569045</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08013488542491612</v>
+        <v>0.08017011206249913</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09973605223342208</v>
+        <v>0.1036560959528943</v>
       </c>
       <c r="O156" t="n">
-        <v>0.08010181546163575</v>
+        <v>0.08014100722190584</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0327506880095822</v>
+        <v>0.07582231844267422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08130920050278463</v>
+        <v>0.0418749200296614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0327506880095822</v>
+        <v>0.03151993046252972</v>
       </c>
       <c r="K157" t="n">
         <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06712639062941236</v>
+        <v>0.06486705175417082</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08101548856145366</v>
+        <v>0.08105110230494417</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09907295721207937</v>
+        <v>0.09845862021005425</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0809820551919834</v>
+        <v>0.08102167763093777</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03279716255924976</v>
+        <v>0.07584903531384607</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08219299616042358</v>
+        <v>0.04233008220389685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03279716255924976</v>
+        <v>0.03162347210067623</v>
       </c>
       <c r="K158" t="n">
         <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06861108917542211</v>
+        <v>0.06775420391390377</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08189609169799121</v>
+        <v>0.08193209254738923</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09894795946337365</v>
+        <v>0.09983563406388379</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08186229492233105</v>
+        <v>0.08190234803996969</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03228840082391674</v>
+        <v>0.07587138442394629</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08307679181806256</v>
+        <v>0.0427852443781323</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03228840082391674</v>
+        <v>0.03184129002994775</v>
       </c>
       <c r="K159" t="n">
         <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06569206170726027</v>
+        <v>0.06671292641399457</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08277669483452874</v>
+        <v>0.08281308278983426</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1013830539142291</v>
+        <v>0.1043019331141374</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0827425346526787</v>
+        <v>0.08278301844900164</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03226028503309494</v>
+        <v>0.07588945961834649</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08396058747570151</v>
+        <v>0.04324040655236775</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03226028503309494</v>
+        <v>0.03332557342256548</v>
       </c>
       <c r="K160" t="n">
         <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06669598664874279</v>
+        <v>0.06642140045371997</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08365729797106627</v>
+        <v>0.08369407303227931</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1031152760848024</v>
+        <v>0.1038521834383526</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08362277438302634</v>
+        <v>0.08366368885803357</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03259310936656169</v>
+        <v>0.07590335474241824</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08484438313334049</v>
+        <v>0.0436955687266032</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03259310936656169</v>
+        <v>0.03201385212092381</v>
       </c>
       <c r="K161" t="n">
         <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06702927931270533</v>
+        <v>0.0651969998843881</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08453790110760383</v>
+        <v>0.08457506327472436</v>
       </c>
       <c r="N161" t="n">
-        <v>0.104504496309105</v>
+        <v>0.1009386066517313</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08450301411337398</v>
+        <v>0.08454435926706549</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03247790906244008</v>
+        <v>0.07591316364153319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08572817879097944</v>
+        <v>0.04415073090083865</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03247790906244008</v>
+        <v>0.03300083978700095</v>
       </c>
       <c r="K162" t="n">
         <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06552888617218894</v>
+        <v>0.06885790782774343</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08541850424414137</v>
+        <v>0.08545605351716939</v>
       </c>
       <c r="N162" t="n">
-        <v>0.105629678410994</v>
+        <v>0.1036116464518636</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08538325384372163</v>
+        <v>0.08542502967609743</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03248800463166471</v>
+        <v>0.07591898016106301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0866119744486184</v>
+        <v>0.0446058930750741</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03248800463166471</v>
+        <v>0.03263656576783204</v>
       </c>
       <c r="K163" t="n">
         <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06957707359020257</v>
+        <v>0.06488734735630167</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08629910738067889</v>
+        <v>0.08633704375961444</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1052239788980984</v>
+        <v>0.100361454886099</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08626349357406926</v>
+        <v>0.08630570008512936</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03244793025663631</v>
+        <v>0.07592089814637926</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08749577010625736</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03244793025663631</v>
+        <v>0.03207486269891396</v>
       </c>
       <c r="K164" t="n">
         <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06765533147731834</v>
+        <v>0.06846589745161533</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08717971051721643</v>
+        <v>0.08721803400205949</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1005585302882068</v>
+        <v>0.1033502083343673</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08714373330441691</v>
+        <v>0.08718637049416129</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03348283197802235</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08837956576389633</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03348283197802235</v>
+        <v>0.03368328801923658</v>
       </c>
       <c r="K165" t="n">
         <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06797297295867979</v>
+        <v>0.06927260098296503</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08806031365375398</v>
+        <v>0.08809902424450454</v>
       </c>
       <c r="N165" t="n">
-        <v>0.105775883251346</v>
+        <v>0.1022033808372729</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08802397303476456</v>
+        <v>0.08806704090319323</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03352479586096267</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08926336142153529</v>
+        <v>0.04509741193273802</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03352479586096267</v>
+        <v>0.03318448813659625</v>
       </c>
       <c r="K166" t="n">
         <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06873698970127198</v>
+        <v>0.06550532137084003</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08894091679029152</v>
+        <v>0.08898001448694959</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1041090169982055</v>
+        <v>0.1024009040373233</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08890421276511221</v>
+        <v>0.08894771131222516</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03225133902585237</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09014715707917426</v>
+        <v>0.04513285978475037</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03225133902585237</v>
+        <v>0.03322404108431253</v>
       </c>
       <c r="K167" t="n">
         <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06738967842442306</v>
+        <v>0.06766009890325977</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08982151992682905</v>
+        <v>0.08986100472939464</v>
       </c>
       <c r="N167" t="n">
-        <v>0.106387846422736</v>
+        <v>0.1050509361971995</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08978445249545985</v>
+        <v>0.08982838172125709</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03310399486273073</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09103095273681322</v>
+        <v>0.04516739880534663</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03310399486273073</v>
+        <v>0.03353638101342407</v>
       </c>
       <c r="K168" t="n">
         <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07015158896769505</v>
+        <v>0.06743397851136546</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0907021230633666</v>
+        <v>0.09074199497183967</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1013153494203703</v>
+        <v>0.1033006378934986</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0906646922258075</v>
+        <v>0.09070905213028903</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03239405457146098</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09191474839445218</v>
+        <v>0.04520102899452677</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03239405457146098</v>
+        <v>0.03374096415023307</v>
       </c>
       <c r="K169" t="n">
         <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06702035280265162</v>
+        <v>0.06844497154496038</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09158272619990414</v>
+        <v>0.09162298521428473</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1052641386429977</v>
+        <v>0.1030654830323439</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09154493195615515</v>
+        <v>0.09158972253932096</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0326885774970483</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09279854405209115</v>
+        <v>0.04523375035229081</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0326885774970483</v>
+        <v>0.03285495290448702</v>
       </c>
       <c r="K170" t="n">
         <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06815138227362735</v>
+        <v>0.06814178748679137</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09246332933644168</v>
+        <v>0.09250397545672977</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1051458617643592</v>
+        <v>0.10562854054477</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0924251716865028</v>
+        <v>0.09247039294835289</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03244954904438339</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09368233970973011</v>
+        <v>0.04526556287863875</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03244954904438339</v>
+        <v>0.03353988731662388</v>
       </c>
       <c r="K171" t="n">
         <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07042700286251111</v>
+        <v>0.06807569108869979</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09334393247297922</v>
+        <v>0.0933849656991748</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1042217657263765</v>
+        <v>0.1003741964257127</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09330541141685043</v>
+        <v>0.09335106335738481</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03355821938251798</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09456613536736906</v>
+        <v>0.04529646657357058</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03355821938251798</v>
+        <v>0.03335003132479647</v>
       </c>
       <c r="K172" t="n">
         <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06778652983458688</v>
+        <v>0.06670242695384657</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09422453560951675</v>
+        <v>0.09426595594161986</v>
       </c>
       <c r="N172" t="n">
-        <v>0.102738205548471</v>
+        <v>0.1043959230820802</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09418565114719808</v>
+        <v>0.09423173376641675</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03255098720184101</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09544993102500804</v>
+        <v>0.04532646143708631</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03255098720184101</v>
+        <v>0.0326593189583979</v>
       </c>
       <c r="K173" t="n">
         <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06952544486652751</v>
+        <v>0.06848459164254117</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09510513874605429</v>
+        <v>0.0951469461840649</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1018583863283229</v>
+        <v>0.1014651269412608</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09506589087754573</v>
+        <v>0.09511240417544869</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03395078519062497</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09633372668264699</v>
+        <v>0.04535554746918592</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03395078519062497</v>
+        <v>0.0333090135499919</v>
       </c>
       <c r="K174" t="n">
         <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06995708029958775</v>
+        <v>0.06943173149913306</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09598574188259183</v>
+        <v>0.09602793642650995</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1024978009379412</v>
+        <v>0.1062430109333011</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09594613060789337</v>
+        <v>0.09599307458448063</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03396651125444387</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09721752234028597</v>
+        <v>0.04538372466986943</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03396651125444387</v>
+        <v>0.03238200341681578</v>
       </c>
       <c r="K175" t="n">
         <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06806691998494493</v>
+        <v>0.06686934771790243</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09686634501912937</v>
+        <v>0.09690892666895499</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1042313085624059</v>
+        <v>0.1016328626562848</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09682637033824101</v>
+        <v>0.09687374499351255</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03262958322647387</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09810131799792492</v>
+        <v>0.04541099303913684</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03262958322647387</v>
+        <v>0.03311327475762127</v>
       </c>
       <c r="K176" t="n">
         <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0675835281525633</v>
+        <v>0.06876647576511094</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09774694815566691</v>
+        <v>0.09778991691140004</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1070278792794461</v>
+        <v>0.1032652502872717</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09770661006858866</v>
+        <v>0.09775441540254448</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03289285685549438</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09898511365556389</v>
+        <v>0.04543735257698814</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03289285685549438</v>
+        <v>0.0340617076140978</v>
       </c>
       <c r="K177" t="n">
         <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0703686311285921</v>
+        <v>0.06741437551901697</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09862755129220446</v>
+        <v>0.09867090715384508</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1057541347958607</v>
+        <v>0.1065846039314806</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09858684979893631</v>
+        <v>0.09863508581157641</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03319717351487496</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09986890931320284</v>
+        <v>0.04546280328342334</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03319717351487496</v>
+        <v>0.03380682798315106</v>
       </c>
       <c r="K178" t="n">
         <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07072050385492001</v>
+        <v>0.06999177274605484</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09950815442874199</v>
+        <v>0.09955189739629013</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1039221214155072</v>
+        <v>0.1054618407176341</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09946708952928396</v>
+        <v>0.09951575622060835</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03323381703726788</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1007527049708418</v>
+        <v>0.04548734515844242</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03323381703726788</v>
+        <v>0.03252363755655496</v>
       </c>
       <c r="K179" t="n">
         <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06918523108797459</v>
+        <v>0.06924140546386751</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1003887575652795</v>
+        <v>0.1004328876387352</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1024270947926222</v>
+        <v>0.101193569944832</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1003473292596316</v>
+        <v>0.1003964266296403</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0333348960130801</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1016365006284808</v>
+        <v>0.04551097820204541</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0333348960130801</v>
+        <v>0.03311817888248569</v>
       </c>
       <c r="K180" t="n">
         <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06940764151607662</v>
+        <v>0.06996814572955443</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1012693607018171</v>
+        <v>0.1013138778811802</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1047417627777485</v>
+        <v>0.1076573645461462</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1012275689899792</v>
+        <v>0.1012770970386722</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03418026371030332</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1025202962861197</v>
+        <v>0.04553370241423228</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03418026371030332</v>
+        <v>0.03375345979982122</v>
       </c>
       <c r="K181" t="n">
         <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06900679242470245</v>
+        <v>0.06755228035488309</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1021499638383546</v>
+        <v>0.1021948681236253</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1021607389107576</v>
+        <v>0.1079146255829481</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1021078087203269</v>
+        <v>0.1021577674477041</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03339399655068814</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1034040919437587</v>
+        <v>0.04555551779500305</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03339399655068814</v>
+        <v>0.03378716355137686</v>
       </c>
       <c r="K182" t="n">
         <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07003650767004674</v>
+        <v>0.06961981605832024</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1030305669748921</v>
+        <v>0.1030758583660703</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1043507307358547</v>
+        <v>0.1076457560436256</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1029880484506745</v>
+        <v>0.1030384378567361</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03437049927697074</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1042878876013977</v>
+        <v>0.04557642434435772</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03437049927697074</v>
+        <v>0.0330407613874259</v>
       </c>
       <c r="K183" t="n">
         <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06744112380228617</v>
+        <v>0.06901651679685022</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1039111701114297</v>
+        <v>0.1039568486085154</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1063337358468951</v>
+        <v>0.1075377092167591</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1038682881810222</v>
+        <v>0.103919108265768</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03366462386788686</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1051716832590366</v>
+        <v>0.04559642206229628</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03366462386788686</v>
+        <v>0.03439340091040446</v>
       </c>
       <c r="K184" t="n">
         <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0671831621173225</v>
+        <v>0.06872012805265604</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1047917732479672</v>
+        <v>0.1048378388509604</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1055661146995198</v>
+        <v>0.1049939769262196</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1047485279113698</v>
+        <v>0.1047997786747999</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03354422745323071</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1060554789166756</v>
+        <v>0.04561551094881875</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03354422745323071</v>
+        <v>0.03387871129009976</v>
       </c>
       <c r="K185" t="n">
         <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06968941721671962</v>
+        <v>0.06875534615017106</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1056723763845048</v>
+        <v>0.1057188290934054</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1052391165809347</v>
+        <v>0.1039562005501982</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1056287676417175</v>
+        <v>0.1056804490838319</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0342671762403127</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1069392745743146</v>
+        <v>0.04563369100392509</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0342671762403127</v>
+        <v>0.03341269783930863</v>
       </c>
       <c r="K186" t="n">
         <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07089632567961976</v>
+        <v>0.06853442741009944</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1065529795210423</v>
+        <v>0.1065998193358505</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1055556269113981</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1065090073720651</v>
+        <v>0.1065611194928638</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0336669259602131</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1078230702319535</v>
+        <v>0.04565096222761535</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0336669259602131</v>
+        <v>0.03430324165496894</v>
       </c>
       <c r="K187" t="n">
         <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07076582135241807</v>
+        <v>0.06971401823578022</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1074335826575799</v>
+        <v>0.1074808095782955</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1036391704534942</v>
+        <v>0.1040162519443876</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1073892471024128</v>
+        <v>0.1074417899018957</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03404472780286423</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1087068658895925</v>
+        <v>0.04566732461988948</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03404472780286423</v>
+        <v>0.0335160402074344</v>
       </c>
       <c r="K188" t="n">
         <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07055679130489539</v>
+        <v>0.06984966818909122</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1083141857941174</v>
+        <v>0.1083617998207406</v>
       </c>
       <c r="N188" t="n">
-        <v>0.108974621320883</v>
+        <v>0.1054398249938403</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1082694868327604</v>
+        <v>0.1083224603109277</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03446152945926129</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1095906615472314</v>
+        <v>0.04568277818074751</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03446152945926129</v>
+        <v>0.03305347837262922</v>
       </c>
       <c r="K189" t="n">
         <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07038670162778868</v>
+        <v>0.06731786029870127</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1091947889306549</v>
+        <v>0.1092427900631856</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1041013217553156</v>
+        <v>0.1041294722028354</v>
       </c>
       <c r="O189" t="n">
-        <v>0.109149726563108</v>
+        <v>0.1092031307199596</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03430228045462837</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1104744572048704</v>
+        <v>0.04569732291018944</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03430228045462837</v>
+        <v>0.03361258390524341</v>
       </c>
       <c r="K190" t="n">
         <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06952273497282338</v>
+        <v>0.06759865759953207</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1100753920671925</v>
+        <v>0.1101237803056307</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1039050266105668</v>
+        <v>0.1042140977947897</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1100299662934557</v>
+        <v>0.1100838011289915</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03381277381412136</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1113582528625094</v>
+        <v>0.04571095880821526</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03381277381412136</v>
+        <v>0.03345067516767178</v>
       </c>
       <c r="K191" t="n">
         <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06892385381842739</v>
+        <v>0.06767893805981207</v>
       </c>
       <c r="M191" t="n">
-        <v>0.11095599520373</v>
+        <v>0.1110047705480757</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1024941527061218</v>
+        <v>0.104126940734849</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1109102060238033</v>
+        <v>0.1109644715380235</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03372707360477145</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1122420485201483</v>
+        <v>0.04572368587482498</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03372707360477145</v>
+        <v>0.03342426729966518</v>
       </c>
       <c r="K192" t="n">
         <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06743850345262539</v>
+        <v>0.07156188497875449</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1118365983402675</v>
+        <v>0.1118857607905208</v>
       </c>
       <c r="N192" t="n">
-        <v>0.106555786067894</v>
+        <v>0.104695564996462</v>
       </c>
       <c r="O192" t="n">
-        <v>0.111790445754151</v>
+        <v>0.1118451419470554</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03394201931685714</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1131258441777873</v>
+        <v>0.04573550411001858</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03394201931685714</v>
+        <v>0.03407486686728266</v>
       </c>
       <c r="K193" t="n">
         <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06898825367578862</v>
+        <v>0.07086867299521657</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1127172014768051</v>
+        <v>0.1127667510329658</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1033031992173808</v>
+        <v>0.107656291098829</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1126706854844986</v>
+        <v>0.1127258123560873</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03374626640940809</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1140096398354263</v>
+        <v>0.04574641351379609</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03374626640940809</v>
+        <v>0.03362720678512748</v>
       </c>
       <c r="K194" t="n">
         <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0691443520082258</v>
+        <v>0.07125916201220875</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1135978046133426</v>
+        <v>0.1136477412754108</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1043106588464614</v>
+        <v>0.1021307595853287</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1135509252148463</v>
+        <v>0.1136064827651193</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03380147936749298</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1148934354930652</v>
+        <v>0.04575641408615749</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03380147936749298</v>
+        <v>0.03307998692773377</v>
       </c>
       <c r="K195" t="n">
         <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07139296327763456</v>
+        <v>0.07024717093401062</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1144784077498802</v>
+        <v>0.1145287315178559</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1033828612521806</v>
+        <v>0.1087256960195505</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1144311649451939</v>
+        <v>0.1144871531741512</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.033791780616934</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1157772311507042</v>
+        <v>0.04576550582710277</v>
       </c>
       <c r="J196" t="n">
-        <v>0.033791780616934</v>
+        <v>0.03335251221590602</v>
       </c>
       <c r="K196" t="n">
         <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06903976155312727</v>
+        <v>0.06881011075832749</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1153590108864177</v>
+        <v>0.115409721760301</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1037668335608286</v>
+        <v>0.1085805296936188</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1153114046755416</v>
+        <v>0.1153678235831831</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03320731870123114</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1166610268083432</v>
+        <v>0.04577368873663196</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03320731870123114</v>
+        <v>0.03309891570358123</v>
       </c>
       <c r="K197" t="n">
         <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06954752818081139</v>
+        <v>0.07052870671684716</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1162396140229553</v>
+        <v>0.116290712002746</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1064938933825489</v>
+        <v>0.1037481274529834</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1161916444058892</v>
+        <v>0.1162484939922151</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03325357458226331</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1175448224659821</v>
+        <v>0.04578096281474504</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03325357458226331</v>
+        <v>0.03402857858544781</v>
       </c>
       <c r="K198" t="n">
         <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06847802010426604</v>
+        <v>0.06826841821344945</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1171202171594928</v>
+        <v>0.117171702245191</v>
       </c>
       <c r="N198" t="n">
-        <v>0.104068002000789</v>
+        <v>0.103965804586249</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1170718841362369</v>
+        <v>0.117129164401247</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03432893320323019</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1184286181236211</v>
+        <v>0.04578732806144202</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03432893320323019</v>
+        <v>0.03305941513113723</v>
       </c>
       <c r="K199" t="n">
         <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06974797404647148</v>
+        <v>0.06995328073137791</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1180008202960303</v>
+        <v>0.1180526924876361</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1026586233800658</v>
+        <v>0.1024574640081744</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1179521238665845</v>
+        <v>0.1180098348102789</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03335585186741277</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.11931241378126</v>
+        <v>0.04579278447672289</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03335585186741277</v>
+        <v>0.03446591769131294</v>
       </c>
       <c r="K200" t="n">
         <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07182971482128481</v>
+        <v>0.07118114860865327</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1188814234325679</v>
+        <v>0.1189336827300811</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1093648298511868</v>
+        <v>0.1042151212724847</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1188323635969322</v>
+        <v>0.1188905052193109</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03445502800959904</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.120196209438899</v>
+        <v>0.04579733206058765</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03445502800959904</v>
+        <v>0.03470738085881192</v>
       </c>
       <c r="K201" t="n">
         <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06894405761435976</v>
+        <v>0.06958014827243844</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1197620265691054</v>
+        <v>0.1198146729725262</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1055958861618958</v>
+        <v>0.1027125517757805</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1197126033272798</v>
+        <v>0.1197711756283428</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03328388119549792</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.121080005096538</v>
+        <v>0.04580097081303632</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03328388119549792</v>
+        <v>0.03471134647435807</v>
       </c>
       <c r="K202" t="n">
         <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07170226016509465</v>
+        <v>0.06906326142541469</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1206426297056429</v>
+        <v>0.1206956632149712</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1054272170171269</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1205928430576274</v>
+        <v>0.1206518460373747</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03438787345180604</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1219638007541769</v>
+        <v>0.04580370073406886</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03438787345180604</v>
+        <v>0.03311903332730426</v>
       </c>
       <c r="K203" t="n">
         <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07024755218478881</v>
+        <v>0.07137759317169065</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1215232328421805</v>
+        <v>0.1215766534574163</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1086410142991216</v>
+        <v>0.1095588341051232</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1214730827879751</v>
+        <v>0.1215325164464067</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03476482121801826</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1228475964118159</v>
+        <v>0.0458055218236853</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03476482121801826</v>
+        <v>0.03345898299911318</v>
       </c>
       <c r="K204" t="n">
         <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07177864935500533</v>
+        <v>0.07180664179764021</v>
       </c>
       <c r="M204" t="n">
-        <v>0.122403835978718</v>
+        <v>0.1224576436998613</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1054608564421475</v>
+        <v>0.103952936164777</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1223533225183227</v>
+        <v>0.1224131868554386</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03489457079407091</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1237313920694549</v>
+        <v>0.04580643408188565</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03489457079407091</v>
+        <v>0.03347995935228332</v>
       </c>
       <c r="K205" t="n">
         <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07022425821057401</v>
+        <v>0.06931593967950167</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1232844391152556</v>
+        <v>0.1233386339423064</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1065033959806161</v>
+        <v>0.1044609080458374</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1232335622486704</v>
+        <v>0.1232938572644705</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03375237679771266</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1246151877270938</v>
+        <v>0.0458064375086699</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03375237679771266</v>
+        <v>0.0342840570330132</v>
       </c>
       <c r="K206" t="n">
         <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06891148760322999</v>
+        <v>0.06823544381667415</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1241650422517931</v>
+        <v>0.1242196241847514</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1053695872418666</v>
+        <v>0.1041758314307631</v>
       </c>
       <c r="O206" t="n">
-        <v>0.124113801979018</v>
+        <v>0.1241745276735024</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1254989833847328</v>
+        <v>0.04580553210403802</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03440598978058021</v>
       </c>
       <c r="K207" t="n">
         <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07109226786605977</v>
+        <v>0.06806597317554389</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1250456453883306</v>
+        <v>0.1251006144271964</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1040990072555187</v>
+        <v>0.1065101788257268</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1249940417093657</v>
+        <v>0.1250551980825344</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0342339846563232</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1263827790423717</v>
+        <v>0.04580371786799005</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0342339846563232</v>
+        <v>0.03478901810656687</v>
       </c>
       <c r="K208" t="n">
         <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06938871718485803</v>
+        <v>0.07256928447968425</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1259262485248682</v>
+        <v>0.1259816046696415</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1077115718202565</v>
+        <v>0.1058674771026033</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1258742814397133</v>
+        <v>0.1259358684915663</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03474332361769289</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1272665747000107</v>
+        <v>0.04580099480052597</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03474332361769289</v>
+        <v>0.0345640370962803</v>
       </c>
       <c r="K209" t="n">
         <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07208156571022753</v>
+        <v>0.06907776677878377</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1268068516614057</v>
+        <v>0.1268625949120865</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1063394990428718</v>
+        <v>0.1056307370996606</v>
       </c>
       <c r="O209" t="n">
-        <v>0.126754521170061</v>
+        <v>0.1268165389005983</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03453377053160435</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1281503703576497</v>
+        <v>0.04579736290164578</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03453377053160435</v>
+        <v>0.03348227847778047</v>
       </c>
       <c r="K210" t="n">
         <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07023677697631797</v>
+        <v>0.07055385051909691</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1276874547979433</v>
+        <v>0.1277435851545316</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1067309520254897</v>
+        <v>0.1073579091278689</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1276347609004086</v>
+        <v>0.1276972093096302</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03496946005937071</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1290341660152886</v>
+        <v>0.04579282217134948</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03496946005937071</v>
+        <v>0.03363710612972906</v>
       </c>
       <c r="K211" t="n">
         <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07269595781552166</v>
+        <v>0.06941324062687637</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1285680579344808</v>
+        <v>0.1286245753969766</v>
       </c>
       <c r="N211" t="n">
-        <v>0.106357379419903</v>
+        <v>0.1050984468439576</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1285150006307563</v>
+        <v>0.1285778797186621</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03434604949674129</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1299179616729276</v>
+        <v>0.04578737260963708</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03434604949674129</v>
+        <v>0.03468707947291653</v>
       </c>
       <c r="K212" t="n">
         <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07137456177601215</v>
+        <v>0.06867308018619087</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1294486610710184</v>
+        <v>0.1295055656394217</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1079622213617279</v>
+        <v>0.1049381323687317</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1293952403611039</v>
+        <v>0.1294585501276941</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0347056320665413</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1308017573305666</v>
+        <v>0.04578101421650858</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0347056320665413</v>
+        <v>0.03458752009824523</v>
       </c>
       <c r="K213" t="n">
         <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07136168818295993</v>
+        <v>0.07240126688320583</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1303292642075559</v>
+        <v>0.1303865558818667</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1074158144052425</v>
+        <v>0.1051705239754447</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1302754800914515</v>
+        <v>0.130339220536726</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03471548205266414</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1316855529882055</v>
+        <v>0.04577374699196396</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03471548205266414</v>
+        <v>0.03389820855007968</v>
       </c>
       <c r="K214" t="n">
         <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07162137640076782</v>
+        <v>0.06981035508166747</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1312098673440934</v>
+        <v>0.1312675461243118</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1094635058828163</v>
+        <v>0.1044157882875396</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1311557198217992</v>
+        <v>0.1312198909457579</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03461790304973954</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1325693486458445</v>
+        <v>0.04576557093600325</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03461790304973954</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K215" t="n">
         <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07166213570713342</v>
+        <v>0.07190547530656161</v>
       </c>
       <c r="M215" t="n">
-        <v>0.132090470480631</v>
+        <v>0.1321485363667568</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1084366246573601</v>
+        <v>0.1101514692946144</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1320359595521468</v>
+        <v>0.1321005613547898</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03376741104404012</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1334531443034835</v>
+        <v>0.04575648604862644</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03376741104404012</v>
+        <v>0.03458370111102332</v>
       </c>
       <c r="K216" t="n">
         <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0698008494098401</v>
+        <v>0.07277381520883802</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1329710736171685</v>
+        <v>0.1330295266092019</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1087464832049896</v>
+        <v>0.1073937755489973</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1329161992824945</v>
+        <v>0.1329812317638218</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03399582396818085</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1343369399611224</v>
+        <v>0.04574649232983351</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03399582396818085</v>
+        <v>0.03515979362577606</v>
       </c>
       <c r="K217" t="n">
         <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06971811193601968</v>
+        <v>0.0727672908488062</v>
       </c>
       <c r="M217" t="n">
-        <v>0.133851676753706</v>
+        <v>0.1339105168516469</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1077461207667747</v>
+        <v>0.1039041369425491</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1337964390128421</v>
+        <v>0.1338619021728537</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03403958369722558</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1352207356187614</v>
+        <v>0.04573558977962447</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03403958369722558</v>
+        <v>0.03375106524208883</v>
       </c>
       <c r="K218" t="n">
         <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06933480266282879</v>
+        <v>0.06952457549742802</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1347322798902436</v>
+        <v>0.1347915070940919</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1068094947498511</v>
+        <v>0.1068870316268047</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1346766787431898</v>
+        <v>0.1347425725818857</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03360432679343602</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1361045312764003</v>
+        <v>0.04572377839799933</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03360432679343602</v>
+        <v>0.03482926913989677</v>
       </c>
       <c r="K219" t="n">
         <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07171655120148829</v>
+        <v>0.0725760106139145</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1356128830267811</v>
+        <v>0.135672497336537</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1035614084280106</v>
+        <v>0.109175978631279</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1355569184735374</v>
+        <v>0.1356232429909176</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03373770127336488</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1369883269340393</v>
+        <v>0.0457110581849581</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03373770127336488</v>
+        <v>0.03499104582275199</v>
       </c>
       <c r="K220" t="n">
         <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06991627086266108</v>
+        <v>0.07211624370870537</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1364934861633187</v>
+        <v>0.136553487578982</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1074592877856348</v>
+        <v>0.105775817902085</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1364371582038851</v>
+        <v>0.1365039133999495</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03347078033541341</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1378721225916783</v>
+        <v>0.04569742914050074</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03347078033541341</v>
+        <v>0.03486101748868906</v>
       </c>
       <c r="K221" t="n">
         <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07032078401092701</v>
+        <v>0.07147976418115062</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1373740892998562</v>
+        <v>0.1374344778214271</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1073483180377671</v>
+        <v>0.1038562914918008</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1373173979342327</v>
+        <v>0.1373845838089814</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03465876955066705</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1387559182493172</v>
+        <v>0.04568289126462729</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03465876955066705</v>
+        <v>0.03484060178874875</v>
       </c>
       <c r="K222" t="n">
         <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07029007623686237</v>
+        <v>0.06840648456001994</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1382546924363937</v>
+        <v>0.1383154680638721</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1100589711586163</v>
+        <v>0.1070939809409474</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1381976376645804</v>
+        <v>0.1382652542180134</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03459988982820969</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1396397139069562</v>
+        <v>0.04566744455733772</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03459988982820969</v>
+        <v>0.03402933251514725</v>
       </c>
       <c r="K223" t="n">
         <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07036940099623853</v>
+        <v>0.07047671474391731</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1391352955729313</v>
+        <v>0.1391964583063172</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1068398854185263</v>
+        <v>0.1051650897566812</v>
       </c>
       <c r="O223" t="n">
-        <v>0.139077877394928</v>
+        <v>0.1391459246270453</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03411786750605962</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1405235095645952</v>
+        <v>0.04565108901863207</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03411786750605962</v>
+        <v>0.03408002231582015</v>
       </c>
       <c r="K224" t="n">
         <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06934011010428048</v>
+        <v>0.07114412063995096</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1400158987094688</v>
+        <v>0.1400774485487622</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1103593625873697</v>
+        <v>0.1099855911899389</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1399581171252756</v>
+        <v>0.1400265950360772</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03506780679888508</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1414073052222341</v>
+        <v>0.04563382464851028</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03506780679888508</v>
+        <v>0.03377219246282556</v>
       </c>
       <c r="K225" t="n">
         <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07292622270034813</v>
+        <v>0.07019382443938543</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1408965018460064</v>
+        <v>0.1409584387912073</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1039806584551053</v>
+        <v>0.1054685525527368</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1408383568556233</v>
+        <v>0.1409072654451092</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03485280891795869</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1422911008798731</v>
+        <v>0.04561565144697241</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03485280891795869</v>
+        <v>0.03406061583478251</v>
       </c>
       <c r="K226" t="n">
         <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07075888425851165</v>
+        <v>0.06868606243354552</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1417771049825439</v>
+        <v>0.1418394290336523</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1039875823555214</v>
+        <v>0.1112541312656726</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1417185965859709</v>
+        <v>0.1417879358541411</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03472964932720117</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1431748965375121</v>
+        <v>0.04559656941401843</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03472964932720117</v>
+        <v>0.03477888030580965</v>
       </c>
       <c r="K227" t="n">
         <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07333658266009016</v>
+        <v>0.07159793525496319</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1426577081190815</v>
+        <v>0.1427204192760974</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1089504383061171</v>
+        <v>0.1103103883105549</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1425988363163186</v>
+        <v>0.142668606263173</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03493007322264813</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.144058692195151</v>
+        <v>0.04557657854964834</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03493007322264813</v>
+        <v>0.03504165010211589</v>
       </c>
       <c r="K228" t="n">
         <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07256061941627906</v>
+        <v>0.07212801319129988</v>
       </c>
       <c r="M228" t="n">
-        <v>0.143538311255619</v>
+        <v>0.1436014095185424</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1064638449582933</v>
+        <v>0.1063466654098493</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1434790760466662</v>
+        <v>0.143549276672205</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03529792911244133</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.14494248785279</v>
+        <v>0.04555567885386214</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03529792911244133</v>
+        <v>0.03443453834440828</v>
       </c>
       <c r="K229" t="n">
         <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07281381302565923</v>
+        <v>0.07049973685240823</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1444189143921565</v>
+        <v>0.1444823997609875</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1052144436834022</v>
+        <v>0.1109002735417012</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1443593157770139</v>
+        <v>0.1444299470812369</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03372627565809896</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.145826283510429</v>
+        <v>0.04553387032665984</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03372627565809896</v>
+        <v>0.03472209126634694</v>
       </c>
       <c r="K230" t="n">
         <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06997735548077702</v>
+        <v>0.06932187829821213</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1452995175286941</v>
+        <v>0.1453633900034325</v>
       </c>
       <c r="N230" t="n">
-        <v>0.11080803947049</v>
+        <v>0.1103533503453024</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1452395555073615</v>
+        <v>0.1453106174902688</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03446591001808355</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1467100791680679</v>
+        <v>0.04551115296804143</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03446591001808355</v>
+        <v>0.03467074357777625</v>
       </c>
       <c r="K231" t="n">
         <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07066113498158696</v>
+        <v>0.07093789612135831</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1461801206652316</v>
+        <v>0.1462443802458775</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1087086384123326</v>
+        <v>0.1080421086394346</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1461197952377092</v>
+        <v>0.1461912878993007</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03504610853898721</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1475938748257069</v>
+        <v>0.04548752677800692</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03504610853898721</v>
+        <v>0.03487835621192967</v>
       </c>
       <c r="K232" t="n">
         <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06923803434690007</v>
+        <v>0.07095599327885957</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1470607238017692</v>
+        <v>0.1471253704883226</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1100035298559403</v>
+        <v>0.1058951149512671</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1470000349680568</v>
+        <v>0.1470719583083327</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03409461610122871</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1484776704833458</v>
+        <v>0.0454629917565563</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03409461610122871</v>
+        <v>0.03382520712439305</v>
       </c>
       <c r="K233" t="n">
         <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07101811424575039</v>
+        <v>0.0729440020911121</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1479413269383067</v>
+        <v>0.1480063607307676</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1064826090098744</v>
+        <v>0.1114636445223404</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1478802746984045</v>
+        <v>0.1479526287173646</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03512985409053609</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1493614661409848</v>
+        <v>0.04543754790368958</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03512985409053609</v>
+        <v>0.03489612929802283</v>
       </c>
       <c r="K234" t="n">
         <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06974815451662891</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1488219300748442</v>
+        <v>0.1488873509732127</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1050346243381862</v>
+        <v>0.1117217282943564</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1487605144287521</v>
+        <v>0.1488332991263965</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03490953647283269</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1502452617986238</v>
+        <v>0.04541119521940675</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03490953647283269</v>
+        <v>0.03457061007238231</v>
       </c>
       <c r="K235" t="n">
         <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07056442622607423</v>
+        <v>0.07060840423146236</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1497025332113818</v>
+        <v>0.1497683412156577</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1085511536940555</v>
+        <v>0.1055393501414165</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1496407541590997</v>
+        <v>0.1497139695354285</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03393954521526948</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1511290574562627</v>
+        <v>0.04538393370370781</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03393954521526948</v>
+        <v>0.03446665539658497</v>
       </c>
       <c r="K236" t="n">
         <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06964876310456894</v>
+        <v>0.07255023278146366</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1505831363479193</v>
+        <v>0.1506493314581027</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1085556776811181</v>
+        <v>0.1101401728604663</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1505209938894474</v>
+        <v>0.1505946399444604</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03499124223874563</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1520128531139017</v>
+        <v>0.04535576335659277</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03499124223874563</v>
+        <v>0.03470983451731627</v>
       </c>
       <c r="K237" t="n">
         <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07114772571463568</v>
+        <v>0.0728206887638024</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1514637394844568</v>
+        <v>0.1515303217005478</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1068965309544557</v>
+        <v>0.1110855715329548</v>
       </c>
       <c r="O237" t="n">
-        <v>0.151401233619795</v>
+        <v>0.1514753103534923</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03409484106829536</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1528966487715407</v>
+        <v>0.04532668417806163</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03409484106829536</v>
+        <v>0.03456782709072145</v>
       </c>
       <c r="K238" t="n">
         <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07112852566819489</v>
+        <v>0.0707966875085223</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1523443426209944</v>
+        <v>0.1524113119429928</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1055510869687679</v>
+        <v>0.1105012824794249</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1522814733501427</v>
+        <v>0.1523559807625243</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03515796376659025</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1537804444291796</v>
+        <v>0.04529669616811437</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03515796376659025</v>
+        <v>0.03370993871306546</v>
       </c>
       <c r="K239" t="n">
         <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07149722094606917</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1532249457575319</v>
+        <v>0.1532923021854379</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1050442639291893</v>
+        <v>0.1058459102024474</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1531617130804903</v>
+        <v>0.1532366511715562</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03402309853165898</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1546642400868186</v>
+        <v>0.04526579932675101</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03402309853165898</v>
+        <v>0.03493886253139884</v>
       </c>
       <c r="K240" t="n">
         <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0713538269518455</v>
+        <v>0.0709549075410483</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1541055488940695</v>
+        <v>0.1541732924278829</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1060252952832869</v>
+        <v>0.1114462557395594</v>
       </c>
       <c r="O240" t="n">
-        <v>0.154041952810838</v>
+        <v>0.1541173215805881</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03401045450734252</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1555480357444576</v>
+        <v>0.04523399365397155</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03401045450734252</v>
+        <v>0.03431398430675604</v>
       </c>
       <c r="K241" t="n">
         <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07054565516059574</v>
+        <v>0.06971279880993569</v>
       </c>
       <c r="M241" t="n">
-        <v>0.154986152030607</v>
+        <v>0.155054282670328</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1069845928168401</v>
+        <v>0.1098821027051287</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1549221925411856</v>
+        <v>0.1549979919896201</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03523572963240704</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1564318314020965</v>
+        <v>0.04520127914977598</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03523572963240704</v>
+        <v>0.03546965555392707</v>
       </c>
       <c r="K242" t="n">
         <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07215300073615991</v>
+        <v>0.07034471384984381</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1558667551671445</v>
+        <v>0.155935272912773</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1063154824347227</v>
+        <v>0.1069586278755887</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1558024322715333</v>
+        <v>0.155878662398652</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03538496429711445</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1573156270597355</v>
+        <v>0.0451676558141643</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03538496429711445</v>
+        <v>0.0347318108845496</v>
       </c>
       <c r="K243" t="n">
         <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0733158622452233</v>
+        <v>0.0710432029351597</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1567473583036821</v>
+        <v>0.1568162631552181</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1098273674821972</v>
+        <v>0.1053859380257666</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1566826720018809</v>
+        <v>0.1567593328076839</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03426174658503786</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1581994227173744</v>
+        <v>0.04513312364713652</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03426174658503786</v>
+        <v>0.03395634051060421</v>
       </c>
       <c r="K244" t="n">
         <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07300396148875424</v>
+        <v>0.07046452038630163</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1576279614402196</v>
+        <v>0.1576972533976631</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1068854925230635</v>
+        <v>0.106856959701668</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1575629117322286</v>
+        <v>0.1576400032167159</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03517902409948635</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1590832183750134</v>
+        <v>0.04509768264869264</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03517902409948635</v>
+        <v>0.03533174420619319</v>
       </c>
       <c r="K245" t="n">
         <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07282351020676628</v>
+        <v>0.07298990166108416</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1585085645767572</v>
+        <v>0.1585782436401082</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1057688625696493</v>
+        <v>0.108972752817432</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1584431514625762</v>
+        <v>0.1585206736257478</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03537664065027692</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1599670140326524</v>
+        <v>0.04506133281883264</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03537664065027692</v>
+        <v>0.03433595438477788</v>
       </c>
       <c r="K246" t="n">
         <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07211038678581425</v>
+        <v>0.07212084097977645</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1593891677132947</v>
+        <v>0.1594592338825532</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1094006509382678</v>
+        <v>0.1067783497649493</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1593233911929239</v>
+        <v>0.1594013440347798</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03506769013374131</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1608508096902913</v>
+        <v>0.04502407415755655</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03506769013374131</v>
+        <v>0.03485553466808332</v>
       </c>
       <c r="K247" t="n">
         <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06978779830658838</v>
+        <v>0.06965454688406214</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1602697708498322</v>
+        <v>0.1603402241249983</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1112065913072331</v>
+        <v>0.1088224072527325</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1602036309232715</v>
+        <v>0.1602820144438117</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03445819670402071</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1617346053479303</v>
+        <v>0.04498590666486434</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03445819670402071</v>
+        <v>0.03498623746152422</v>
       </c>
       <c r="K248" t="n">
         <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07003723802487008</v>
+        <v>0.07402020017980285</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1611503739863698</v>
+        <v>0.1612212143674433</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1110066935099308</v>
+        <v>0.1109807541398947</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1610838706536191</v>
+        <v>0.1611626848528436</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.034946016158333</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1626184010055693</v>
+        <v>0.04494683034075603</v>
       </c>
       <c r="J249" t="n">
-        <v>0.034946016158333</v>
+        <v>0.03506855299026911</v>
       </c>
       <c r="K249" t="n">
         <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06999677460304146</v>
+        <v>0.07160534928096787</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1620309771229073</v>
+        <v>0.1621022046098883</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1088336642703417</v>
+        <v>0.1049748785242967</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1619641103839668</v>
+        <v>0.1620433552618755</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03429969352185108</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1635021966632082</v>
+        <v>0.04490684518523162</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03429969352185108</v>
+        <v>0.03503529543602547</v>
       </c>
       <c r="K250" t="n">
         <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07238697820797119</v>
+        <v>0.07066659555839902</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1629115802594449</v>
+        <v>0.1629831948523334</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1071563262605001</v>
+        <v>0.1067536383619372</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1628443501143144</v>
+        <v>0.1629240256709075</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03491770114961136</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1643859923208472</v>
+        <v>0.0448659511982911</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03491770114961136</v>
+        <v>0.03432345551525438</v>
       </c>
       <c r="K251" t="n">
         <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07298899094040262</v>
+        <v>0.07061395176100119</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1637921833959824</v>
+        <v>0.1638641850947785</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1080671639158887</v>
+        <v>0.1061747157556686</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1637245898446621</v>
+        <v>0.1638046960799394</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03487876452236047</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1652697879784861</v>
+        <v>0.04482414837993447</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03487876452236047</v>
+        <v>0.03442316698996833</v>
       </c>
       <c r="K252" t="n">
         <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07024993667126972</v>
+        <v>0.06938378034028581</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1646727865325199</v>
+        <v>0.1647451753372235</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1054456778752904</v>
+        <v>0.1052686645787941</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1646048295750097</v>
+        <v>0.1646853664889713</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03519033424399855</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1661535836361251</v>
+        <v>0.04478143673016174</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03519033424399855</v>
+        <v>0.03460732751429592</v>
       </c>
       <c r="K253" t="n">
         <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06993972071011448</v>
+        <v>0.07082774103035752</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1655533896690575</v>
+        <v>0.1656261655796685</v>
       </c>
       <c r="N253" t="n">
-        <v>0.108620502888584</v>
+        <v>0.1071023779815773</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1654850693053574</v>
+        <v>0.1655660368980033</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03398817498028256</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1670373792937641</v>
+        <v>0.0447378162489729</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03398817498028256</v>
+        <v>0.03501747677275635</v>
       </c>
       <c r="K254" t="n">
         <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07273612607620591</v>
+        <v>0.07137129616395407</v>
       </c>
       <c r="M254" t="n">
-        <v>0.166433992805595</v>
+        <v>0.1665071558221136</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1054471719443872</v>
+        <v>0.1078576739327351</v>
       </c>
       <c r="O254" t="n">
-        <v>0.166365309035705</v>
+        <v>0.1664467073070352</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03436668964553481</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.167921174951403</v>
+        <v>0.04469328693636795</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03436668964553481</v>
+        <v>0.03458746823081285</v>
       </c>
       <c r="K255" t="n">
         <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07267969361442728</v>
+        <v>0.07232448552973714</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1673145959421325</v>
+        <v>0.1673881460645586</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1074421523729129</v>
+        <v>0.1067726605455635</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1672455487660527</v>
+        <v>0.1673273777160671</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03402103929523712</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.168804970609042</v>
+        <v>0.04464784879234691</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03402103929523712</v>
+        <v>0.0339889747196629</v>
       </c>
       <c r="K256" t="n">
         <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07187888875924225</v>
+        <v>0.07319938751274099</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1681951990786701</v>
+        <v>0.1682691363070037</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1059246603474743</v>
+        <v>0.109479315702912</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1681257884964003</v>
+        <v>0.1682080481250991</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03518371604354609</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.169688766266681</v>
+        <v>0.04460150181690975</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03518371604354609</v>
+        <v>0.03530728514305016</v>
       </c>
       <c r="K257" t="n">
         <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07345175570218324</v>
+        <v>0.07009975864880127</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1690758022152077</v>
+        <v>0.1691501265494487</v>
       </c>
       <c r="N257" t="n">
-        <v>0.108932533571843</v>
+        <v>0.1100251586655057</v>
       </c>
       <c r="O257" t="n">
-        <v>0.169006028226748</v>
+        <v>0.169088718534131</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03458419732684656</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1705725619243199</v>
+        <v>0.04455424601005649</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03458419732684656</v>
+        <v>0.03527677195865817</v>
       </c>
       <c r="K258" t="n">
         <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07293763658558924</v>
+        <v>0.07311541876689004</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1699564053517452</v>
+        <v>0.1700311167918938</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1121235951536544</v>
+        <v>0.110920848201333</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1698862679570956</v>
+        <v>0.1699693889431629</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03456439039986023</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1714563575819589</v>
+        <v>0.04450608137178712</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03456439039986023</v>
+        <v>0.03440493968852155</v>
       </c>
       <c r="K259" t="n">
         <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07153398111693721</v>
+        <v>0.07124478506894547</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1708370084882827</v>
+        <v>0.1709121070343388</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1117172930044144</v>
+        <v>0.1047817770397982</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1707665076874433</v>
+        <v>0.1708500593521949</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0347451467306258</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1723401532395978</v>
+        <v>0.04445700790210165</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0347451467306258</v>
+        <v>0.03541610950790777</v>
       </c>
       <c r="K260" t="n">
         <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07214898651775617</v>
+        <v>0.07334805221929791</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1717176116248202</v>
+        <v>0.1717930972767839</v>
       </c>
       <c r="N260" t="n">
-        <v>0.105320112742128</v>
+        <v>0.1068974017235611</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1716467474177909</v>
+        <v>0.1717307297612268</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03489333631054065</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1732239488972368</v>
+        <v>0.04440702560100007</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03489333631054065</v>
+        <v>0.0342903057441323</v>
       </c>
       <c r="K261" t="n">
         <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07369598987539527</v>
+        <v>0.07245249057334391</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1725982147613578</v>
+        <v>0.1726740875192289</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1108020225299412</v>
+        <v>0.1073777887184647</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1725269871481385</v>
+        <v>0.1726114001702587</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03533170642184302</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1741077445548758</v>
+        <v>0.04435613446848239</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03533170642184302</v>
+        <v>0.03567609632554976</v>
       </c>
       <c r="K262" t="n">
         <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07192296524620601</v>
+        <v>0.07174534491832113</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1734788178978953</v>
+        <v>0.1735550777616739</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1095084646781815</v>
+        <v>0.1066201094842362</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1734072268784862</v>
+        <v>0.1734920705792907</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0344349324866414</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1749915402125147</v>
+        <v>0.0443043345045486</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0344349324866414</v>
+        <v>0.03520128024980781</v>
       </c>
       <c r="K263" t="n">
         <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07255714248816517</v>
+        <v>0.0736006577948505</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1743594210344329</v>
+        <v>0.174436068004119</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1055635176509644</v>
+        <v>0.1113192792730787</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1742874666088338</v>
+        <v>0.1743727409883226</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03506950452804086</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1758753358701537</v>
+        <v>0.0442516257091987</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03506950452804086</v>
+        <v>0.03422863486847702</v>
       </c>
       <c r="K264" t="n">
         <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0706042386161328</v>
+        <v>0.07163638981550557</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1752400241709704</v>
+        <v>0.175317058246564</v>
       </c>
       <c r="N264" t="n">
-        <v>0.106210765968183</v>
+        <v>0.1059334237565568</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1751677063391815</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1752534113973545</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0442516257091987</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04421526902577025</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04417982117375788</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04414528215316164</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04411165196398149</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04407893060621745</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04404711807986951</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04401621438493768</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04398621952142196</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04395713348932234</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04392895628863883</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04390168791937141</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04387532838152011</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04384987767508493</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04382533580006583</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04380170275646285</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04377897854427596</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04375716316350519</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04373625661415052</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04371625889621197</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04369717000968951</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04367898995458316</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04366171873089292</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04364535633861878</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04362990277776074</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04361535804831881</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.043601722150293</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04358899508368328</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04357717684848968</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04356626744471217</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04355626687235078</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04354717513140547</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04353899222187628</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04353171814376321</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04352535289706624</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04351989648178536</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0435153488979206</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04351171014547194</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04350898022443939</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04350715913482293</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04350624687662259</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04350624344983837</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04350714885447023</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04350896309051821</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04351168615798229</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04351531805686248</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04351985878715876</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04352530834887117</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04353166674199967</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04353893396654427</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.043547110022505</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04355619490988182</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04356618862867474</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04357709117888377</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04358890256050892</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04360162277355015</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04361525181800752</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04362978969388096</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04364523640117052</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0436615919398762</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04367885630999796</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04369702951153585</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04371611154448982</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04373610240885992</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04375700210464611</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04377881063184842</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04380152799046683</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04382515418050134</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04384968920195195</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04387513305481868</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04390148573910151</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04392874725480044</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04395691760191548</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04398599678044663</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04401598479039388</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04404688163175724</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04407868730453671</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04411140180873228</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04414502514434395</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04417955731137172</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04421499830981562</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04425134813967561</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04428860680095171</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04432677429364391</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04436585061775222</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04440583577327663</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04444672976021716</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04448853257857379</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04453124422834651</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04457486470953536</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0446193940221403</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04466483216616135</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0447111791415985</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04475843494845176</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04480659958672113</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04485567305640661</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04490565535750818</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04495654649002587</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04500834645395965</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07594219359856852</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04681992931505535</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07645951735320569</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04857880338080114</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07697275196534276</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05033767744654693</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07748177999003177</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05209655151229273</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0779864839823247</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05385542557803852</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07848674649727359</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0556142996437843</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07898245008993045</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05737317370953011</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0794734773153473</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0591320477752759</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07995971072857616</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06089092184102168</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08044103288466904</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06264979590676749</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08091732633867797</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06440866997251328</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08138847364565496</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06616754403825907</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08185435736065205</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06792641810400486</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08231486003872121</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06968529216975065</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08276986423491446</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07144416623549645</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08321925250428389</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07320304030124225</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08366290740188145</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07496191436698806</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08410071148275916</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07672078843273383</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08453254730196907</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07847966249847964</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08495829741456318</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08023853656422543</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08537784437559351</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08199741062997121</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08579107074011208</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08375628469571701</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08619785906317085</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08551515876146282</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08659809189982196</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08727403282720859</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08699165180511731</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.0890329068929544</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.08737842133410897</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09079178095870019</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08775828304184896</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09255065502444598</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08813111948338931</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09430952909019177</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.088496813213782</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09606840315593758</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08885524678807905</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09782727722168336</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08921075555453625</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09958615128742916</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08956803611097014</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.101345025353175</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08992650110672717</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1031038994189207</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09028555695157542</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1048627734846665</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0906446100552831</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1066216475504123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09100306682761819</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1083805216161581</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09136033367834884</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1101393956819039</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09171581701724318</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1118982697476497</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09206892325406932</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1136571438133955</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09241905879859533</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1154160178791413</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09276563006058938</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1171748919448871</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09310804344981949</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1189337660106329</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09344570537605384</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1206926400763787</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09377802224906051</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1224515141421245</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0941044004786076</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1242103882078703</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09442424647446324</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1259692622736161</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.09473696664639553</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1277281363393619</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.09504196740417253</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1294870104051077</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.09533865515756243</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1312458844708534</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0956264363163333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1330047585365992</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.09590471729025321</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1347636326023451</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0961729044890903</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1365225066680908</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09643040432261268</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1382813807338366</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09667662320058845</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1400402547995824</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09691096753278575</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1417991288653282</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.09713284372897263</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.143558002931074</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09734165819891724</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1453168769968198</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09753681735238767</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1470757510625656</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09771772759915201</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1488346251283114</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09788379534897843</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09803442701163498</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.152352373259803</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09816974094500533</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1541112473255488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09830046244977517</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1558701213912946</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09843026065008206</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1576289954570403</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09855898578380837</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1593878695227862</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09868648808883648</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1611467435885319</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09881261780304881</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1629056176542777</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09893722516432765</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1646644917200235</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09906016041055535</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1664233657857693</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09918127377961436</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1681822398515151</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09930041550938701</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1699411139172609</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09941743583775567</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1716999879830067</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09953218500260269</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1734588620487525</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09964451324181048</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1752177361144983</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09975427079326135</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1769766101802441</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09986130789483771</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1787354842459899</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09996547478442194</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1804943583117357</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1000666216998964</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1822532323774814</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1001645988791434</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1840121064432273</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1002592565600453</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1857709805089731</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1003504449804846</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1875298545747188</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1004380143783435</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1892887286404646</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1005218149915046</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1910476027062104</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.10060169705785</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1928064767719562</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1006775108152622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.194565350837702</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1007491065016236</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1963242249034478</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1008163343548165</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1980830989691936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1008790446127233</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1998419730349394</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1009370875132264</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2016008471006852</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1009903132942081</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.203359721166431</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1010385721935508</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2051185952321768</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1010817144491368</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2068774692979226</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1011195902988486</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2086363433636683</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1011520499805685</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2103952174294142</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1011789437321789</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.21215409149516</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.101200121791562</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2139129655609057</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1012154343966004</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2156718396266515</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2174307136923973</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2191895877581432</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
